--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>198.9</v>
+        <v>197.1</v>
       </c>
       <c r="C2" t="n">
-        <v>198.9</v>
+        <v>196.3</v>
       </c>
       <c r="D2" t="n">
-        <v>198.9</v>
+        <v>197.1</v>
       </c>
       <c r="E2" t="n">
-        <v>198.9</v>
+        <v>196.3</v>
       </c>
       <c r="F2" t="n">
-        <v>23.3269</v>
+        <v>4062.9342</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4649999999998</v>
+        <v>200.4816666666665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>200.3</v>
+        <v>198.9</v>
       </c>
       <c r="C3" t="n">
-        <v>200.3</v>
+        <v>198.9</v>
       </c>
       <c r="D3" t="n">
-        <v>200.3</v>
+        <v>198.9</v>
       </c>
       <c r="E3" t="n">
-        <v>200.3</v>
+        <v>198.9</v>
       </c>
       <c r="F3" t="n">
         <v>23.3269</v>
       </c>
       <c r="G3" t="n">
-        <v>200.4549999999998</v>
+        <v>200.4649999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>198.9</v>
+        <v>200.3</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9</v>
+        <v>200.3</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9</v>
+        <v>200.3</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9</v>
+        <v>200.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1236.966</v>
+        <v>23.3269</v>
       </c>
       <c r="G4" t="n">
-        <v>200.4366666666665</v>
+        <v>200.4549999999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>200.4</v>
+        <v>198.9</v>
       </c>
       <c r="C5" t="n">
-        <v>200.4</v>
+        <v>198.9</v>
       </c>
       <c r="D5" t="n">
-        <v>200.4</v>
+        <v>198.9</v>
       </c>
       <c r="E5" t="n">
-        <v>200.4</v>
+        <v>198.9</v>
       </c>
       <c r="F5" t="n">
-        <v>259.3483</v>
+        <v>1236.966</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4449999999998</v>
+        <v>200.4366666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>200.4</v>
       </c>
       <c r="C6" t="n">
-        <v>204</v>
+        <v>200.4</v>
       </c>
       <c r="D6" t="n">
-        <v>204</v>
+        <v>200.4</v>
       </c>
       <c r="E6" t="n">
         <v>200.4</v>
       </c>
       <c r="F6" t="n">
-        <v>496.2238</v>
+        <v>259.3483</v>
       </c>
       <c r="G6" t="n">
-        <v>200.5116666666665</v>
+        <v>200.4449999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="C7" t="n">
         <v>204</v>
       </c>
-      <c r="C7" t="n">
-        <v>204.9</v>
-      </c>
       <c r="D7" t="n">
-        <v>204.9</v>
+        <v>204</v>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>200.4</v>
       </c>
       <c r="F7" t="n">
-        <v>5488.3622</v>
+        <v>496.2238</v>
       </c>
       <c r="G7" t="n">
-        <v>200.6199999999998</v>
+        <v>200.5116666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>204.9</v>
+        <v>204</v>
       </c>
       <c r="C8" t="n">
         <v>204.9</v>
@@ -652,13 +652,13 @@
         <v>204.9</v>
       </c>
       <c r="E8" t="n">
-        <v>204.9</v>
+        <v>204</v>
       </c>
       <c r="F8" t="n">
-        <v>4.8457</v>
+        <v>5488.3622</v>
       </c>
       <c r="G8" t="n">
-        <v>200.6866666666665</v>
+        <v>200.6199999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>204.8</v>
+        <v>204.9</v>
       </c>
       <c r="C9" t="n">
-        <v>204.1</v>
+        <v>204.9</v>
       </c>
       <c r="D9" t="n">
-        <v>204.8</v>
+        <v>204.9</v>
       </c>
       <c r="E9" t="n">
-        <v>204.1</v>
+        <v>204.9</v>
       </c>
       <c r="F9" t="n">
-        <v>73.68819999999999</v>
+        <v>4.8457</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7716666666665</v>
+        <v>200.6866666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>203.6</v>
+        <v>204.8</v>
       </c>
       <c r="C10" t="n">
-        <v>200.7</v>
+        <v>204.1</v>
       </c>
       <c r="D10" t="n">
-        <v>203.6</v>
+        <v>204.8</v>
       </c>
       <c r="E10" t="n">
-        <v>200.7</v>
+        <v>204.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>73.68819999999999</v>
       </c>
       <c r="G10" t="n">
         <v>200.7716666666665</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>204.8</v>
+        <v>203.6</v>
       </c>
       <c r="C11" t="n">
-        <v>204.8</v>
+        <v>200.7</v>
       </c>
       <c r="D11" t="n">
-        <v>204.8</v>
+        <v>203.6</v>
       </c>
       <c r="E11" t="n">
-        <v>204.8</v>
+        <v>200.7</v>
       </c>
       <c r="F11" t="n">
-        <v>42.9336</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>200.8766666666665</v>
+        <v>200.7716666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202</v>
+        <v>204.8</v>
       </c>
       <c r="C12" t="n">
-        <v>200.7</v>
+        <v>204.8</v>
       </c>
       <c r="D12" t="n">
-        <v>202</v>
+        <v>204.8</v>
       </c>
       <c r="E12" t="n">
-        <v>200.7</v>
+        <v>204.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2597.7292</v>
+        <v>42.9336</v>
       </c>
       <c r="G12" t="n">
-        <v>200.8899999999998</v>
+        <v>200.8766666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203.5</v>
+        <v>202</v>
       </c>
       <c r="C13" t="n">
-        <v>200.6</v>
+        <v>200.7</v>
       </c>
       <c r="D13" t="n">
-        <v>203.5</v>
+        <v>202</v>
       </c>
       <c r="E13" t="n">
-        <v>200.6</v>
+        <v>200.7</v>
       </c>
       <c r="F13" t="n">
-        <v>292.3269</v>
+        <v>2597.7292</v>
       </c>
       <c r="G13" t="n">
-        <v>200.8999999999998</v>
+        <v>200.8899999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>203.5</v>
       </c>
       <c r="C14" t="n">
-        <v>203.5</v>
+        <v>200.6</v>
       </c>
       <c r="D14" t="n">
         <v>203.5</v>
       </c>
       <c r="E14" t="n">
-        <v>203.5</v>
+        <v>200.6</v>
       </c>
       <c r="F14" t="n">
-        <v>27.6279</v>
+        <v>292.3269</v>
       </c>
       <c r="G14" t="n">
-        <v>200.9416666666665</v>
+        <v>200.8999999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>203.5</v>
       </c>
       <c r="F15" t="n">
-        <v>23.3269</v>
+        <v>27.6279</v>
       </c>
       <c r="G15" t="n">
-        <v>201.0166666666665</v>
+        <v>200.9416666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>202</v>
+        <v>203.5</v>
       </c>
       <c r="C16" t="n">
-        <v>200.6</v>
+        <v>203.5</v>
       </c>
       <c r="D16" t="n">
-        <v>202</v>
+        <v>203.5</v>
       </c>
       <c r="E16" t="n">
-        <v>200.6</v>
+        <v>203.5</v>
       </c>
       <c r="F16" t="n">
-        <v>5312.4379</v>
+        <v>23.3269</v>
       </c>
       <c r="G16" t="n">
-        <v>201.0433333333332</v>
+        <v>201.0166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>203.4</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
-        <v>203.4</v>
+        <v>200.6</v>
       </c>
       <c r="D17" t="n">
-        <v>203.4</v>
+        <v>202</v>
       </c>
       <c r="E17" t="n">
-        <v>203.4</v>
+        <v>200.6</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5312.4379</v>
       </c>
       <c r="G17" t="n">
-        <v>201.0883333333332</v>
+        <v>201.0433333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>201.9</v>
+        <v>203.4</v>
       </c>
       <c r="C18" t="n">
-        <v>201.9</v>
+        <v>203.4</v>
       </c>
       <c r="D18" t="n">
-        <v>201.9</v>
+        <v>203.4</v>
       </c>
       <c r="E18" t="n">
-        <v>201.9</v>
+        <v>203.4</v>
       </c>
       <c r="F18" t="n">
-        <v>42.9336</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>201.0866666666665</v>
+        <v>201.0883333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>200.6</v>
+        <v>201.9</v>
       </c>
       <c r="C19" t="n">
-        <v>200.4</v>
+        <v>201.9</v>
       </c>
       <c r="D19" t="n">
-        <v>200.6</v>
+        <v>201.9</v>
       </c>
       <c r="E19" t="n">
-        <v>200.4</v>
+        <v>201.9</v>
       </c>
       <c r="F19" t="n">
-        <v>242.0574</v>
+        <v>42.9336</v>
       </c>
       <c r="G19" t="n">
-        <v>201.0599999999998</v>
+        <v>201.0866666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>201.7</v>
+        <v>200.6</v>
       </c>
       <c r="C20" t="n">
-        <v>201.7</v>
+        <v>200.4</v>
       </c>
       <c r="D20" t="n">
-        <v>201.7</v>
+        <v>200.6</v>
       </c>
       <c r="E20" t="n">
-        <v>201.7</v>
+        <v>200.4</v>
       </c>
       <c r="F20" t="n">
-        <v>23.3269</v>
+        <v>242.0574</v>
       </c>
       <c r="G20" t="n">
-        <v>201.0549999999998</v>
+        <v>201.0599999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>200.4</v>
+        <v>201.7</v>
       </c>
       <c r="C21" t="n">
-        <v>200.4</v>
+        <v>201.7</v>
       </c>
       <c r="D21" t="n">
-        <v>200.4</v>
+        <v>201.7</v>
       </c>
       <c r="E21" t="n">
-        <v>200.4</v>
+        <v>201.7</v>
       </c>
       <c r="F21" t="n">
-        <v>194.4575</v>
+        <v>23.3269</v>
       </c>
       <c r="G21" t="n">
-        <v>201.0766666666665</v>
+        <v>201.0549999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>200.1</v>
+        <v>200.4</v>
       </c>
       <c r="C22" t="n">
-        <v>200.1</v>
+        <v>200.4</v>
       </c>
       <c r="D22" t="n">
-        <v>200.1</v>
+        <v>200.4</v>
       </c>
       <c r="E22" t="n">
-        <v>200.1</v>
+        <v>200.4</v>
       </c>
       <c r="F22" t="n">
-        <v>24.6664</v>
+        <v>194.4575</v>
       </c>
       <c r="G22" t="n">
-        <v>201.0933333333332</v>
+        <v>201.0766666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>200.1</v>
       </c>
       <c r="C23" t="n">
-        <v>201.5</v>
+        <v>200.1</v>
       </c>
       <c r="D23" t="n">
-        <v>201.5</v>
+        <v>200.1</v>
       </c>
       <c r="E23" t="n">
         <v>200.1</v>
       </c>
       <c r="F23" t="n">
-        <v>55.0325</v>
+        <v>24.6664</v>
       </c>
       <c r="G23" t="n">
-        <v>201.0866666666665</v>
+        <v>201.0933333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>200.1</v>
       </c>
       <c r="C24" t="n">
-        <v>200.1</v>
+        <v>201.5</v>
       </c>
       <c r="D24" t="n">
-        <v>200.1</v>
+        <v>201.5</v>
       </c>
       <c r="E24" t="n">
         <v>200.1</v>
       </c>
       <c r="F24" t="n">
-        <v>103.2848</v>
+        <v>55.0325</v>
       </c>
       <c r="G24" t="n">
-        <v>201.0899999999998</v>
+        <v>201.0866666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>199.5</v>
+        <v>200.1</v>
       </c>
       <c r="C25" t="n">
-        <v>196.2</v>
+        <v>200.1</v>
       </c>
       <c r="D25" t="n">
-        <v>199.5</v>
+        <v>200.1</v>
       </c>
       <c r="E25" t="n">
-        <v>196.2</v>
+        <v>200.1</v>
       </c>
       <c r="F25" t="n">
-        <v>10587.1944</v>
+        <v>103.2848</v>
       </c>
       <c r="G25" t="n">
-        <v>200.9949999999999</v>
+        <v>201.0899999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C26" t="n">
         <v>196.2</v>
       </c>
-      <c r="C26" t="n">
-        <v>200</v>
-      </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="E26" t="n">
         <v>196.2</v>
       </c>
       <c r="F26" t="n">
-        <v>2412.1296</v>
+        <v>10587.1944</v>
       </c>
       <c r="G26" t="n">
-        <v>200.9633333333332</v>
+        <v>200.9949999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>199.9</v>
+        <v>196.2</v>
       </c>
       <c r="C27" t="n">
-        <v>199.9</v>
+        <v>200</v>
       </c>
       <c r="D27" t="n">
-        <v>199.9</v>
+        <v>200</v>
       </c>
       <c r="E27" t="n">
-        <v>199.9</v>
+        <v>196.2</v>
       </c>
       <c r="F27" t="n">
-        <v>1937.4259</v>
+        <v>2412.1296</v>
       </c>
       <c r="G27" t="n">
-        <v>200.9283333333332</v>
+        <v>200.9633333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="C28" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="E28" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="F28" t="n">
-        <v>1069.4441</v>
+        <v>1937.4259</v>
       </c>
       <c r="G28" t="n">
-        <v>200.8699999999999</v>
+        <v>200.9283333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" t="n">
-        <v>42.9336</v>
+        <v>1069.4441</v>
       </c>
       <c r="G29" t="n">
-        <v>200.7866666666665</v>
+        <v>200.8699999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>201</v>
       </c>
       <c r="D30" t="n">
-        <v>201.8</v>
+        <v>201</v>
       </c>
       <c r="E30" t="n">
         <v>201</v>
       </c>
       <c r="F30" t="n">
-        <v>20526.6749</v>
+        <v>42.9336</v>
       </c>
       <c r="G30" t="n">
-        <v>200.7799999999999</v>
+        <v>200.7866666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>201.5</v>
+        <v>201</v>
       </c>
       <c r="C31" t="n">
-        <v>201.5</v>
+        <v>201</v>
       </c>
       <c r="D31" t="n">
-        <v>201.5</v>
+        <v>201.8</v>
       </c>
       <c r="E31" t="n">
-        <v>201.5</v>
+        <v>201</v>
       </c>
       <c r="F31" t="n">
-        <v>133.3696</v>
+        <v>20526.6749</v>
       </c>
       <c r="G31" t="n">
-        <v>200.7816666666666</v>
+        <v>200.7799999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>199.9</v>
+        <v>201.5</v>
       </c>
       <c r="C32" t="n">
-        <v>196</v>
+        <v>201.5</v>
       </c>
       <c r="D32" t="n">
-        <v>199.9</v>
+        <v>201.5</v>
       </c>
       <c r="E32" t="n">
-        <v>196</v>
+        <v>201.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1691.9613</v>
+        <v>133.3696</v>
       </c>
       <c r="G32" t="n">
-        <v>200.6916666666665</v>
+        <v>200.7816666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>195.5</v>
+        <v>199.9</v>
       </c>
       <c r="C33" t="n">
-        <v>195.5</v>
+        <v>196</v>
       </c>
       <c r="D33" t="n">
-        <v>195.5</v>
+        <v>199.9</v>
       </c>
       <c r="E33" t="n">
-        <v>195.5</v>
+        <v>196</v>
       </c>
       <c r="F33" t="n">
-        <v>39.2031</v>
+        <v>1691.9613</v>
       </c>
       <c r="G33" t="n">
-        <v>200.5933333333332</v>
+        <v>200.6916666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>198.1</v>
+        <v>195.5</v>
       </c>
       <c r="C34" t="n">
-        <v>198.1</v>
+        <v>195.5</v>
       </c>
       <c r="D34" t="n">
-        <v>198.1</v>
+        <v>195.5</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1</v>
+        <v>195.5</v>
       </c>
       <c r="F34" t="n">
-        <v>747.1734</v>
+        <v>39.2031</v>
       </c>
       <c r="G34" t="n">
-        <v>200.5399999999999</v>
+        <v>200.5933333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>198.1</v>
       </c>
       <c r="C35" t="n">
-        <v>195.5</v>
+        <v>198.1</v>
       </c>
       <c r="D35" t="n">
         <v>198.1</v>
       </c>
       <c r="E35" t="n">
-        <v>195.5</v>
+        <v>198.1</v>
       </c>
       <c r="F35" t="n">
-        <v>2818.7793</v>
+        <v>747.1734</v>
       </c>
       <c r="G35" t="n">
-        <v>200.4483333333332</v>
+        <v>200.5399999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>195.5</v>
+        <v>198.1</v>
       </c>
       <c r="C36" t="n">
         <v>195.5</v>
       </c>
       <c r="D36" t="n">
-        <v>195.5</v>
+        <v>198.1</v>
       </c>
       <c r="E36" t="n">
         <v>195.5</v>
       </c>
       <c r="F36" t="n">
-        <v>460.0473</v>
+        <v>2818.7793</v>
       </c>
       <c r="G36" t="n">
-        <v>200.3499999999999</v>
+        <v>200.4483333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>197</v>
+        <v>195.5</v>
       </c>
       <c r="C37" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="D37" t="n">
-        <v>197</v>
+        <v>195.5</v>
       </c>
       <c r="E37" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="F37" t="n">
-        <v>18599.9044</v>
+        <v>460.0473</v>
       </c>
       <c r="G37" t="n">
-        <v>200.2433333333333</v>
+        <v>200.3499999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>197</v>
+      </c>
+      <c r="C38" t="n">
         <v>195</v>
       </c>
-      <c r="C38" t="n">
-        <v>194</v>
-      </c>
       <c r="D38" t="n">
+        <v>197</v>
+      </c>
+      <c r="E38" t="n">
         <v>195</v>
       </c>
-      <c r="E38" t="n">
-        <v>194</v>
-      </c>
       <c r="F38" t="n">
-        <v>784.1385</v>
+        <v>18599.9044</v>
       </c>
       <c r="G38" t="n">
-        <v>200.0583333333333</v>
+        <v>200.2433333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>194</v>
       </c>
       <c r="F39" t="n">
-        <v>4216.3105</v>
+        <v>784.1385</v>
       </c>
       <c r="G39" t="n">
-        <v>199.9249999999999</v>
+        <v>200.0583333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>193.9</v>
+        <v>195</v>
       </c>
       <c r="C40" t="n">
         <v>194</v>
       </c>
       <c r="D40" t="n">
+        <v>195</v>
+      </c>
+      <c r="E40" t="n">
         <v>194</v>
       </c>
-      <c r="E40" t="n">
-        <v>193.8</v>
-      </c>
       <c r="F40" t="n">
-        <v>752.3078</v>
+        <v>4216.3105</v>
       </c>
       <c r="G40" t="n">
-        <v>199.7916666666666</v>
+        <v>199.9249999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>193.8</v>
+        <v>193.9</v>
       </c>
       <c r="C41" t="n">
-        <v>193.8</v>
+        <v>194</v>
       </c>
       <c r="D41" t="n">
-        <v>193.8</v>
+        <v>194</v>
       </c>
       <c r="E41" t="n">
         <v>193.8</v>
       </c>
       <c r="F41" t="n">
-        <v>6.5323</v>
+        <v>752.3078</v>
       </c>
       <c r="G41" t="n">
-        <v>199.6383333333332</v>
+        <v>199.7916666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>193.8</v>
       </c>
       <c r="F42" t="n">
-        <v>380.9231</v>
+        <v>6.5323</v>
       </c>
       <c r="G42" t="n">
-        <v>199.4533333333332</v>
+        <v>199.6383333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>193.8</v>
       </c>
       <c r="F43" t="n">
-        <v>39.2031</v>
+        <v>380.9231</v>
       </c>
       <c r="G43" t="n">
-        <v>199.3166666666665</v>
+        <v>199.4533333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>193.9</v>
+        <v>193.8</v>
       </c>
       <c r="C44" t="n">
-        <v>193.5</v>
+        <v>193.8</v>
       </c>
       <c r="D44" t="n">
-        <v>193.9</v>
+        <v>193.8</v>
       </c>
       <c r="E44" t="n">
-        <v>193.5</v>
+        <v>193.8</v>
       </c>
       <c r="F44" t="n">
-        <v>6000</v>
+        <v>39.2031</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2083333333332</v>
+        <v>199.3166666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="C45" t="n">
         <v>193.5</v>
       </c>
-      <c r="C45" t="n">
-        <v>196.7</v>
-      </c>
       <c r="D45" t="n">
-        <v>196.7</v>
+        <v>193.9</v>
       </c>
       <c r="E45" t="n">
-        <v>193.2</v>
+        <v>193.5</v>
       </c>
       <c r="F45" t="n">
-        <v>2371.0254</v>
+        <v>6000</v>
       </c>
       <c r="G45" t="n">
-        <v>199.1616666666665</v>
+        <v>199.2083333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,35 +1973,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>193.2</v>
+        <v>193.5</v>
       </c>
       <c r="C46" t="n">
-        <v>193.2</v>
+        <v>196.7</v>
       </c>
       <c r="D46" t="n">
-        <v>193.2</v>
+        <v>196.7</v>
       </c>
       <c r="E46" t="n">
         <v>193.2</v>
       </c>
       <c r="F46" t="n">
-        <v>6.5323</v>
+        <v>2371.0254</v>
       </c>
       <c r="G46" t="n">
-        <v>199.0583333333333</v>
+        <v>199.1616666666665</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>196.7</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2015,37 +2011,29 @@
         <v>193.2</v>
       </c>
       <c r="C47" t="n">
-        <v>192.4</v>
+        <v>193.2</v>
       </c>
       <c r="D47" t="n">
         <v>193.2</v>
       </c>
       <c r="E47" t="n">
-        <v>192.4</v>
+        <v>193.2</v>
       </c>
       <c r="F47" t="n">
-        <v>6430.4461</v>
+        <v>6.5323</v>
       </c>
       <c r="G47" t="n">
-        <v>198.9449999999999</v>
+        <v>199.0583333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2058,37 +2046,29 @@
         <v>193.2</v>
       </c>
       <c r="C48" t="n">
-        <v>193.2</v>
+        <v>192.4</v>
       </c>
       <c r="D48" t="n">
         <v>193.2</v>
       </c>
       <c r="E48" t="n">
-        <v>193.2</v>
+        <v>192.4</v>
       </c>
       <c r="F48" t="n">
-        <v>322.8461</v>
+        <v>6430.4461</v>
       </c>
       <c r="G48" t="n">
-        <v>198.8399999999999</v>
+        <v>198.9449999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="C49" t="n">
-        <v>192.4</v>
+        <v>193.2</v>
       </c>
       <c r="D49" t="n">
-        <v>192.5</v>
+        <v>193.2</v>
       </c>
       <c r="E49" t="n">
-        <v>192.4</v>
+        <v>193.2</v>
       </c>
       <c r="F49" t="n">
-        <v>6566.1918</v>
+        <v>322.8461</v>
       </c>
       <c r="G49" t="n">
-        <v>198.7299999999999</v>
+        <v>198.8399999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2122,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2139,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>192.4</v>
+        <v>192.5</v>
       </c>
       <c r="C50" t="n">
         <v>192.4</v>
       </c>
       <c r="D50" t="n">
-        <v>192.4</v>
+        <v>192.5</v>
       </c>
       <c r="E50" t="n">
         <v>192.4</v>
       </c>
       <c r="F50" t="n">
-        <v>4796.5409</v>
+        <v>6566.1918</v>
       </c>
       <c r="G50" t="n">
-        <v>198.6199999999999</v>
+        <v>198.7299999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2163,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2183,19 +2151,19 @@
         <v>192.4</v>
       </c>
       <c r="C51" t="n">
-        <v>194.9</v>
+        <v>192.4</v>
       </c>
       <c r="D51" t="n">
-        <v>194.9</v>
+        <v>192.4</v>
       </c>
       <c r="E51" t="n">
         <v>192.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1495.9006</v>
+        <v>4796.5409</v>
       </c>
       <c r="G51" t="n">
-        <v>198.5699999999999</v>
+        <v>198.6199999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2204,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2221,40 +2183,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>192.9</v>
+        <v>192.4</v>
       </c>
       <c r="C52" t="n">
-        <v>192.9</v>
+        <v>194.9</v>
       </c>
       <c r="D52" t="n">
-        <v>192.9</v>
+        <v>194.9</v>
       </c>
       <c r="E52" t="n">
-        <v>192.9</v>
+        <v>192.4</v>
       </c>
       <c r="F52" t="n">
-        <v>23.9611</v>
+        <v>1495.9006</v>
       </c>
       <c r="G52" t="n">
-        <v>198.4866666666666</v>
+        <v>198.5699999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>194.4</v>
+        <v>192.9</v>
       </c>
       <c r="C53" t="n">
-        <v>194.2</v>
+        <v>192.9</v>
       </c>
       <c r="D53" t="n">
-        <v>194.4</v>
+        <v>192.9</v>
       </c>
       <c r="E53" t="n">
-        <v>194.2</v>
+        <v>192.9</v>
       </c>
       <c r="F53" t="n">
-        <v>8099.0542</v>
+        <v>23.9611</v>
       </c>
       <c r="G53" t="n">
-        <v>198.4266666666666</v>
+        <v>198.4866666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2288,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2305,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>194.9</v>
+        <v>194.4</v>
       </c>
       <c r="C54" t="n">
-        <v>194.9</v>
+        <v>194.2</v>
       </c>
       <c r="D54" t="n">
-        <v>194.9</v>
+        <v>194.4</v>
       </c>
       <c r="E54" t="n">
-        <v>194.9</v>
+        <v>194.2</v>
       </c>
       <c r="F54" t="n">
-        <v>5.3266</v>
+        <v>8099.0542</v>
       </c>
       <c r="G54" t="n">
-        <v>198.3433333333332</v>
+        <v>198.4266666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2329,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="C55" t="n">
         <v>194.9</v>
@@ -2355,13 +2297,13 @@
         <v>194.9</v>
       </c>
       <c r="E55" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="F55" t="n">
-        <v>32.6069</v>
+        <v>5.3266</v>
       </c>
       <c r="G55" t="n">
-        <v>198.2249999999999</v>
+        <v>198.3433333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>194.9</v>
+        <v>193</v>
       </c>
       <c r="C56" t="n">
         <v>194.9</v>
@@ -2396,13 +2332,13 @@
         <v>194.9</v>
       </c>
       <c r="E56" t="n">
-        <v>194.9</v>
+        <v>193</v>
       </c>
       <c r="F56" t="n">
-        <v>4864.6305</v>
+        <v>32.6069</v>
       </c>
       <c r="G56" t="n">
-        <v>198.1066666666666</v>
+        <v>198.2249999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2411,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2370,10 @@
         <v>194.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2838.5871</v>
+        <v>4864.6305</v>
       </c>
       <c r="G57" t="n">
-        <v>198.0583333333333</v>
+        <v>198.1066666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2452,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2481,10 +2405,10 @@
         <v>194.9</v>
       </c>
       <c r="F58" t="n">
-        <v>3403.2556</v>
+        <v>2838.5871</v>
       </c>
       <c r="G58" t="n">
-        <v>198.0083333333332</v>
+        <v>198.0583333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2493,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2510,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="C59" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="D59" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="E59" t="n">
-        <v>193</v>
+        <v>194.9</v>
       </c>
       <c r="F59" t="n">
-        <v>6.5323</v>
+        <v>3403.2556</v>
       </c>
       <c r="G59" t="n">
-        <v>197.9266666666666</v>
+        <v>198.0083333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2534,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2551,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="C60" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="D60" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="E60" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="F60" t="n">
-        <v>4010.9858</v>
+        <v>6.5323</v>
       </c>
       <c r="G60" t="n">
-        <v>197.8599999999999</v>
+        <v>197.9266666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2575,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>195</v>
+        <v>193.1</v>
       </c>
       <c r="C61" t="n">
-        <v>201</v>
+        <v>193.1</v>
       </c>
       <c r="D61" t="n">
-        <v>201</v>
+        <v>193.1</v>
       </c>
       <c r="E61" t="n">
-        <v>195</v>
+        <v>193.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3825.70034</v>
+        <v>4010.9858</v>
       </c>
       <c r="G61" t="n">
-        <v>197.9383333333332</v>
+        <v>197.8599999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2616,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2633,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>200.1</v>
+        <v>195</v>
       </c>
       <c r="C62" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="D62" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="E62" t="n">
-        <v>200.1</v>
+        <v>195</v>
       </c>
       <c r="F62" t="n">
-        <v>11025.1415</v>
+        <v>3825.70034</v>
       </c>
       <c r="G62" t="n">
-        <v>197.96</v>
+        <v>197.9383333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2657,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>201</v>
+        <v>200.1</v>
       </c>
       <c r="C63" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="D63" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="E63" t="n">
-        <v>201</v>
+        <v>200.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>11025.1415</v>
       </c>
       <c r="G63" t="n">
-        <v>197.9716666666666</v>
+        <v>197.96</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2698,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2715,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>196.2</v>
+        <v>201</v>
       </c>
       <c r="C64" t="n">
-        <v>196.1</v>
+        <v>201</v>
       </c>
       <c r="D64" t="n">
-        <v>196.2</v>
+        <v>201</v>
       </c>
       <c r="E64" t="n">
-        <v>196.1</v>
+        <v>201</v>
       </c>
       <c r="F64" t="n">
-        <v>1005</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>197.925</v>
+        <v>197.9716666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2739,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2756,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>196.1</v>
+        <v>196.2</v>
       </c>
       <c r="C65" t="n">
         <v>196.1</v>
       </c>
       <c r="D65" t="n">
-        <v>196.1</v>
+        <v>196.2</v>
       </c>
       <c r="E65" t="n">
         <v>196.1</v>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>1005</v>
       </c>
       <c r="G65" t="n">
-        <v>197.8533333333333</v>
+        <v>197.925</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2780,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2797,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>196.2</v>
+        <v>196.1</v>
       </c>
       <c r="C66" t="n">
-        <v>200.7</v>
+        <v>196.1</v>
       </c>
       <c r="D66" t="n">
-        <v>200.7</v>
+        <v>196.1</v>
       </c>
       <c r="E66" t="n">
-        <v>196.2</v>
+        <v>196.1</v>
       </c>
       <c r="F66" t="n">
-        <v>232.5799</v>
+        <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>197.7983333333333</v>
+        <v>197.8533333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2821,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2841,35 +2711,29 @@
         <v>196.2</v>
       </c>
       <c r="C67" t="n">
-        <v>196.2</v>
+        <v>200.7</v>
       </c>
       <c r="D67" t="n">
-        <v>196.2</v>
+        <v>200.7</v>
       </c>
       <c r="E67" t="n">
         <v>196.2</v>
       </c>
       <c r="F67" t="n">
-        <v>184.4848</v>
+        <v>232.5799</v>
       </c>
       <c r="G67" t="n">
-        <v>197.6533333333333</v>
+        <v>197.7983333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2879,38 +2743,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>196.9</v>
+        <v>196.2</v>
       </c>
       <c r="C68" t="n">
-        <v>196.9</v>
+        <v>196.2</v>
       </c>
       <c r="D68" t="n">
-        <v>196.9</v>
+        <v>196.2</v>
       </c>
       <c r="E68" t="n">
-        <v>196.9</v>
+        <v>196.2</v>
       </c>
       <c r="F68" t="n">
-        <v>99.9927</v>
+        <v>184.4848</v>
       </c>
       <c r="G68" t="n">
-        <v>197.52</v>
+        <v>197.6533333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2932,10 +2790,10 @@
         <v>196.9</v>
       </c>
       <c r="F69" t="n">
-        <v>856.2133</v>
+        <v>99.9927</v>
       </c>
       <c r="G69" t="n">
-        <v>197.4</v>
+        <v>197.52</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2944,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2973,10 +2825,10 @@
         <v>196.9</v>
       </c>
       <c r="F70" t="n">
-        <v>5013.8032</v>
+        <v>856.2133</v>
       </c>
       <c r="G70" t="n">
-        <v>197.3366666666666</v>
+        <v>197.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2985,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3002,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>197</v>
+        <v>196.9</v>
       </c>
       <c r="C71" t="n">
-        <v>198.3</v>
+        <v>196.9</v>
       </c>
       <c r="D71" t="n">
-        <v>198.3</v>
+        <v>196.9</v>
       </c>
       <c r="E71" t="n">
-        <v>197</v>
+        <v>196.9</v>
       </c>
       <c r="F71" t="n">
-        <v>1090.6134</v>
+        <v>5013.8032</v>
       </c>
       <c r="G71" t="n">
-        <v>197.2283333333333</v>
+        <v>197.3366666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3026,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3046,19 +2886,19 @@
         <v>197</v>
       </c>
       <c r="C72" t="n">
-        <v>196.9</v>
+        <v>198.3</v>
       </c>
       <c r="D72" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="E72" t="n">
         <v>197</v>
       </c>
-      <c r="E72" t="n">
-        <v>196.9</v>
-      </c>
       <c r="F72" t="n">
-        <v>1605</v>
+        <v>1090.6134</v>
       </c>
       <c r="G72" t="n">
-        <v>197.165</v>
+        <v>197.2283333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3067,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>198.3</v>
+        <v>197</v>
       </c>
       <c r="C73" t="n">
-        <v>198.3</v>
+        <v>196.9</v>
       </c>
       <c r="D73" t="n">
-        <v>198.3</v>
+        <v>197</v>
       </c>
       <c r="E73" t="n">
-        <v>198.3</v>
+        <v>196.9</v>
       </c>
       <c r="F73" t="n">
-        <v>421.7107</v>
+        <v>1605</v>
       </c>
       <c r="G73" t="n">
-        <v>197.1266666666666</v>
+        <v>197.165</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3108,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3125,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>200.1</v>
+        <v>198.3</v>
       </c>
       <c r="C74" t="n">
         <v>198.3</v>
       </c>
       <c r="D74" t="n">
-        <v>200.1</v>
+        <v>198.3</v>
       </c>
       <c r="E74" t="n">
         <v>198.3</v>
       </c>
       <c r="F74" t="n">
-        <v>64.73990000000001</v>
+        <v>421.7107</v>
       </c>
       <c r="G74" t="n">
-        <v>197.0399999999999</v>
+        <v>197.1266666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3149,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3166,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>196.9</v>
+        <v>200.1</v>
       </c>
       <c r="C75" t="n">
-        <v>196.9</v>
+        <v>198.3</v>
       </c>
       <c r="D75" t="n">
-        <v>196.9</v>
+        <v>200.1</v>
       </c>
       <c r="E75" t="n">
-        <v>196.9</v>
+        <v>198.3</v>
       </c>
       <c r="F75" t="n">
-        <v>15715.4311</v>
+        <v>64.73990000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>196.9299999999999</v>
+        <v>197.0399999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3190,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3207,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>200</v>
+        <v>196.9</v>
       </c>
       <c r="C76" t="n">
-        <v>200</v>
+        <v>196.9</v>
       </c>
       <c r="D76" t="n">
-        <v>200</v>
+        <v>196.9</v>
       </c>
       <c r="E76" t="n">
-        <v>200</v>
+        <v>196.9</v>
       </c>
       <c r="F76" t="n">
-        <v>27.6279</v>
+        <v>15715.4311</v>
       </c>
       <c r="G76" t="n">
-        <v>196.9199999999999</v>
+        <v>196.9299999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3231,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3248,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>197.1</v>
+        <v>200</v>
       </c>
       <c r="C77" t="n">
-        <v>197.1</v>
+        <v>200</v>
       </c>
       <c r="D77" t="n">
-        <v>197.1</v>
+        <v>200</v>
       </c>
       <c r="E77" t="n">
-        <v>197.1</v>
+        <v>200</v>
       </c>
       <c r="F77" t="n">
-        <v>818.1664</v>
+        <v>27.6279</v>
       </c>
       <c r="G77" t="n">
-        <v>196.8149999999999</v>
+        <v>196.9199999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3272,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3289,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>195.7</v>
+        <v>197.1</v>
       </c>
       <c r="C78" t="n">
-        <v>193.1</v>
+        <v>197.1</v>
       </c>
       <c r="D78" t="n">
-        <v>195.7</v>
+        <v>197.1</v>
       </c>
       <c r="E78" t="n">
-        <v>193.1</v>
+        <v>197.1</v>
       </c>
       <c r="F78" t="n">
-        <v>7366.5961</v>
+        <v>818.1664</v>
       </c>
       <c r="G78" t="n">
-        <v>196.6683333333333</v>
+        <v>196.8149999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3313,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3330,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="C79" t="n">
         <v>193.1</v>
       </c>
-      <c r="C79" t="n">
-        <v>196.9</v>
-      </c>
       <c r="D79" t="n">
-        <v>196.9</v>
+        <v>195.7</v>
       </c>
       <c r="E79" t="n">
         <v>193.1</v>
       </c>
       <c r="F79" t="n">
-        <v>1630.0265</v>
+        <v>7366.5961</v>
       </c>
       <c r="G79" t="n">
-        <v>196.61</v>
+        <v>196.6683333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3354,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3371,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>194</v>
+        <v>193.1</v>
       </c>
       <c r="C80" t="n">
         <v>196.9</v>
@@ -3380,13 +3172,13 @@
         <v>196.9</v>
       </c>
       <c r="E80" t="n">
-        <v>194</v>
+        <v>193.1</v>
       </c>
       <c r="F80" t="n">
-        <v>1375.2334</v>
+        <v>1630.0265</v>
       </c>
       <c r="G80" t="n">
-        <v>196.5299999999999</v>
+        <v>196.61</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3395,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>194</v>
+      </c>
+      <c r="C81" t="n">
         <v>196.9</v>
       </c>
-      <c r="C81" t="n">
-        <v>197</v>
-      </c>
       <c r="D81" t="n">
-        <v>197</v>
+        <v>196.9</v>
       </c>
       <c r="E81" t="n">
-        <v>196.9</v>
+        <v>194</v>
       </c>
       <c r="F81" t="n">
-        <v>618.0634</v>
+        <v>1375.2334</v>
       </c>
       <c r="G81" t="n">
-        <v>196.4733333333333</v>
+        <v>196.5299999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3436,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3456,19 +3236,19 @@
         <v>196.9</v>
       </c>
       <c r="C82" t="n">
-        <v>196.9</v>
+        <v>197</v>
       </c>
       <c r="D82" t="n">
-        <v>196.9</v>
+        <v>197</v>
       </c>
       <c r="E82" t="n">
         <v>196.9</v>
       </c>
       <c r="F82" t="n">
-        <v>14616.3882</v>
+        <v>618.0634</v>
       </c>
       <c r="G82" t="n">
-        <v>196.4199999999999</v>
+        <v>196.4733333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3477,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>197</v>
+        <v>196.9</v>
       </c>
       <c r="C83" t="n">
-        <v>199</v>
+        <v>196.9</v>
       </c>
       <c r="D83" t="n">
-        <v>199</v>
+        <v>196.9</v>
       </c>
       <c r="E83" t="n">
-        <v>197</v>
+        <v>196.9</v>
       </c>
       <c r="F83" t="n">
-        <v>154.0208</v>
+        <v>14616.3882</v>
       </c>
       <c r="G83" t="n">
-        <v>196.3783333333332</v>
+        <v>196.4199999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3518,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3535,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C84" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D84" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E84" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F84" t="n">
-        <v>690.6414</v>
+        <v>154.0208</v>
       </c>
       <c r="G84" t="n">
-        <v>196.2766666666666</v>
+        <v>196.3783333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3559,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3576,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>195.1</v>
+        <v>194</v>
       </c>
       <c r="C85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" t="n">
-        <v>195.1</v>
+        <v>194</v>
       </c>
       <c r="E85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F85" t="n">
-        <v>1997.2461</v>
+        <v>690.6414</v>
       </c>
       <c r="G85" t="n">
-        <v>196.2566666666666</v>
+        <v>196.2766666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3600,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3617,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>198.8</v>
+        <v>195.1</v>
       </c>
       <c r="C86" t="n">
-        <v>198.8</v>
+        <v>195</v>
       </c>
       <c r="D86" t="n">
-        <v>198.8</v>
+        <v>195.1</v>
       </c>
       <c r="E86" t="n">
-        <v>198.8</v>
+        <v>195</v>
       </c>
       <c r="F86" t="n">
-        <v>49.0448</v>
+        <v>1997.2461</v>
       </c>
       <c r="G86" t="n">
-        <v>196.2366666666666</v>
+        <v>196.2566666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3641,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3670,10 +3420,10 @@
         <v>198.8</v>
       </c>
       <c r="F87" t="n">
-        <v>551.9302</v>
+        <v>49.0448</v>
       </c>
       <c r="G87" t="n">
-        <v>196.2183333333332</v>
+        <v>196.2366666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3682,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3699,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>195.2</v>
+        <v>198.8</v>
       </c>
       <c r="C88" t="n">
-        <v>195.2</v>
+        <v>198.8</v>
       </c>
       <c r="D88" t="n">
-        <v>195.2</v>
+        <v>198.8</v>
       </c>
       <c r="E88" t="n">
-        <v>195.2</v>
+        <v>198.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1382.0667</v>
+        <v>551.9302</v>
       </c>
       <c r="G88" t="n">
-        <v>196.1383333333332</v>
+        <v>196.2183333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3723,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3752,10 +3490,10 @@
         <v>195.2</v>
       </c>
       <c r="F89" t="n">
-        <v>246.4982</v>
+        <v>1382.0667</v>
       </c>
       <c r="G89" t="n">
-        <v>196.0416666666666</v>
+        <v>196.1383333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3764,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3781,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>198.7</v>
+        <v>195.2</v>
       </c>
       <c r="C90" t="n">
-        <v>198.7</v>
+        <v>195.2</v>
       </c>
       <c r="D90" t="n">
-        <v>198.7</v>
+        <v>195.2</v>
       </c>
       <c r="E90" t="n">
-        <v>198.7</v>
+        <v>195.2</v>
       </c>
       <c r="F90" t="n">
-        <v>57.0591</v>
+        <v>246.4982</v>
       </c>
       <c r="G90" t="n">
-        <v>196.0033333333332</v>
+        <v>196.0416666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3805,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>195.2</v>
+        <v>198.7</v>
       </c>
       <c r="C91" t="n">
-        <v>196</v>
+        <v>198.7</v>
       </c>
       <c r="D91" t="n">
-        <v>196</v>
+        <v>198.7</v>
       </c>
       <c r="E91" t="n">
-        <v>195</v>
+        <v>198.7</v>
       </c>
       <c r="F91" t="n">
-        <v>3234.0048</v>
+        <v>57.0591</v>
       </c>
       <c r="G91" t="n">
-        <v>195.9116666666666</v>
+        <v>196.0033333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3846,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>196</v>
+      </c>
+      <c r="D92" t="n">
+        <v>196</v>
+      </c>
+      <c r="E92" t="n">
         <v>195</v>
       </c>
-      <c r="C92" t="n">
-        <v>193</v>
-      </c>
-      <c r="D92" t="n">
-        <v>195</v>
-      </c>
-      <c r="E92" t="n">
-        <v>193</v>
-      </c>
       <c r="F92" t="n">
-        <v>8949.874900000001</v>
+        <v>3234.0048</v>
       </c>
       <c r="G92" t="n">
-        <v>195.8616666666666</v>
+        <v>195.9116666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3887,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>197.9</v>
+        <v>195</v>
       </c>
       <c r="C93" t="n">
-        <v>197.9</v>
+        <v>193</v>
       </c>
       <c r="D93" t="n">
-        <v>197.9</v>
+        <v>195</v>
       </c>
       <c r="E93" t="n">
-        <v>197.9</v>
+        <v>193</v>
       </c>
       <c r="F93" t="n">
-        <v>25.7403</v>
+        <v>8949.874900000001</v>
       </c>
       <c r="G93" t="n">
-        <v>195.9016666666666</v>
+        <v>195.8616666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3928,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3945,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>194</v>
+        <v>197.9</v>
       </c>
       <c r="C94" t="n">
-        <v>194</v>
+        <v>197.9</v>
       </c>
       <c r="D94" t="n">
-        <v>194</v>
+        <v>197.9</v>
       </c>
       <c r="E94" t="n">
-        <v>194</v>
+        <v>197.9</v>
       </c>
       <c r="F94" t="n">
-        <v>522.6228</v>
+        <v>25.7403</v>
       </c>
       <c r="G94" t="n">
-        <v>195.8333333333332</v>
+        <v>195.9016666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3969,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3986,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>194.1</v>
+        <v>194</v>
       </c>
       <c r="C95" t="n">
-        <v>194.1</v>
+        <v>194</v>
       </c>
       <c r="D95" t="n">
-        <v>194.1</v>
+        <v>194</v>
       </c>
       <c r="E95" t="n">
-        <v>194.1</v>
+        <v>194</v>
       </c>
       <c r="F95" t="n">
-        <v>262.75</v>
+        <v>522.6228</v>
       </c>
       <c r="G95" t="n">
-        <v>195.8099999999999</v>
+        <v>195.8333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4010,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4027,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>197.9</v>
+        <v>194.1</v>
       </c>
       <c r="C96" t="n">
-        <v>197.9</v>
+        <v>194.1</v>
       </c>
       <c r="D96" t="n">
-        <v>197.9</v>
+        <v>194.1</v>
       </c>
       <c r="E96" t="n">
-        <v>197.9</v>
+        <v>194.1</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>262.75</v>
       </c>
       <c r="G96" t="n">
-        <v>195.8499999999999</v>
+        <v>195.8099999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4051,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4068,19 +3758,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>195</v>
+        <v>197.9</v>
       </c>
       <c r="C97" t="n">
-        <v>195</v>
+        <v>197.9</v>
       </c>
       <c r="D97" t="n">
-        <v>195</v>
+        <v>197.9</v>
       </c>
       <c r="E97" t="n">
-        <v>195</v>
+        <v>197.9</v>
       </c>
       <c r="F97" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
         <v>195.8499999999999</v>
@@ -4092,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D98" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E98" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="G98" t="n">
-        <v>195.8833333333332</v>
+        <v>195.8499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4133,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4150,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C99" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D99" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E99" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F99" t="n">
-        <v>993.3631</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>195.8999999999999</v>
+        <v>195.8833333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4174,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4191,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>194.6</v>
+        <v>195</v>
       </c>
       <c r="C100" t="n">
-        <v>194.6</v>
+        <v>195</v>
       </c>
       <c r="D100" t="n">
-        <v>194.6</v>
+        <v>195</v>
       </c>
       <c r="E100" t="n">
-        <v>194.6</v>
+        <v>195</v>
       </c>
       <c r="F100" t="n">
-        <v>64.3</v>
+        <v>993.3631</v>
       </c>
       <c r="G100" t="n">
-        <v>195.9099999999999</v>
+        <v>195.8999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4215,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4232,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="C101" t="n">
-        <v>196</v>
+        <v>194.6</v>
       </c>
       <c r="D101" t="n">
-        <v>196</v>
+        <v>194.6</v>
       </c>
       <c r="E101" t="n">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2789.5448</v>
+        <v>64.3</v>
       </c>
       <c r="G101" t="n">
-        <v>195.9466666666666</v>
+        <v>195.9099999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4256,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" t="n">
         <v>196</v>
@@ -4282,13 +3942,13 @@
         <v>196</v>
       </c>
       <c r="E102" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F102" t="n">
-        <v>383.4216</v>
+        <v>2789.5448</v>
       </c>
       <c r="G102" t="n">
-        <v>195.9833333333333</v>
+        <v>195.9466666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4297,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4317,19 +3971,19 @@
         <v>196</v>
       </c>
       <c r="C103" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="D103" t="n">
         <v>196</v>
       </c>
       <c r="E103" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="F103" t="n">
-        <v>2003.4854</v>
+        <v>383.4216</v>
       </c>
       <c r="G103" t="n">
-        <v>196.0183333333333</v>
+        <v>195.9833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4338,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4355,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" t="n">
-        <v>197.5</v>
+        <v>195.9</v>
       </c>
       <c r="D104" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E104" t="n">
-        <v>197</v>
+        <v>195.9</v>
       </c>
       <c r="F104" t="n">
-        <v>8969.510399999999</v>
+        <v>2003.4854</v>
       </c>
       <c r="G104" t="n">
-        <v>196.085</v>
+        <v>196.0183333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4379,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4396,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>197.5</v>
+        <v>197</v>
       </c>
       <c r="C105" t="n">
         <v>197.5</v>
@@ -4405,29 +4047,27 @@
         <v>197.5</v>
       </c>
       <c r="E105" t="n">
-        <v>197.5</v>
+        <v>197</v>
       </c>
       <c r="F105" t="n">
-        <v>152.666</v>
+        <v>8969.510399999999</v>
       </c>
       <c r="G105" t="n">
-        <v>196.0983333333333</v>
+        <v>196.085</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>195.9</v>
+      </c>
       <c r="K105" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>195.9</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4449,10 +4089,10 @@
         <v>197.5</v>
       </c>
       <c r="F106" t="n">
-        <v>763.33</v>
+        <v>152.666</v>
       </c>
       <c r="G106" t="n">
-        <v>196.1699999999999</v>
+        <v>196.0983333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4462,11 +4102,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>196.7</v>
+        <v>195.9</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4490,10 +4130,10 @@
         <v>197.5</v>
       </c>
       <c r="F107" t="n">
-        <v>9051.8181</v>
+        <v>763.33</v>
       </c>
       <c r="G107" t="n">
-        <v>196.2549999999999</v>
+        <v>196.1699999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4503,11 +4143,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>196.7</v>
+        <v>195.9</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4519,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="C108" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="D108" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="E108" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="F108" t="n">
-        <v>7.7365</v>
+        <v>9051.8181</v>
       </c>
       <c r="G108" t="n">
-        <v>196.3183333333332</v>
+        <v>196.2549999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4543,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4572,10 +4206,10 @@
         <v>197</v>
       </c>
       <c r="F109" t="n">
-        <v>1138.2539</v>
+        <v>7.7365</v>
       </c>
       <c r="G109" t="n">
-        <v>196.3949999999999</v>
+        <v>196.3183333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4584,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4601,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>195.9</v>
+        <v>197</v>
       </c>
       <c r="C110" t="n">
-        <v>195.9</v>
+        <v>197</v>
       </c>
       <c r="D110" t="n">
-        <v>195.9</v>
+        <v>197</v>
       </c>
       <c r="E110" t="n">
-        <v>195.9</v>
+        <v>197</v>
       </c>
       <c r="F110" t="n">
-        <v>295.4652</v>
+        <v>1138.2539</v>
       </c>
       <c r="G110" t="n">
-        <v>196.4533333333333</v>
+        <v>196.3949999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4625,14 +4253,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4642,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>195.7</v>
+        <v>195.9</v>
       </c>
       <c r="C111" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="D111" t="n">
-        <v>195.7</v>
+        <v>195.9</v>
       </c>
       <c r="E111" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="F111" t="n">
-        <v>347.6008</v>
+        <v>295.4652</v>
       </c>
       <c r="G111" t="n">
-        <v>196.4633333333333</v>
+        <v>196.4533333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4666,14 +4288,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4683,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>195.9</v>
+        <v>195.7</v>
       </c>
       <c r="C112" t="n">
-        <v>195.9</v>
+        <v>195.5</v>
       </c>
       <c r="D112" t="n">
-        <v>195.9</v>
+        <v>195.7</v>
       </c>
       <c r="E112" t="n">
-        <v>195.9</v>
+        <v>195.5</v>
       </c>
       <c r="F112" t="n">
-        <v>5.0498</v>
+        <v>347.6008</v>
       </c>
       <c r="G112" t="n">
-        <v>196.5133333333333</v>
+        <v>196.4633333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4707,14 +4323,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4724,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="C113" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="D113" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="E113" t="n">
-        <v>195.5</v>
+        <v>195.9</v>
       </c>
       <c r="F113" t="n">
-        <v>400.9483</v>
+        <v>5.0498</v>
       </c>
       <c r="G113" t="n">
-        <v>196.5349999999999</v>
+        <v>196.5133333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4748,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4765,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="C114" t="n">
-        <v>194</v>
+        <v>195.5</v>
       </c>
       <c r="D114" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="E114" t="n">
-        <v>194</v>
+        <v>195.5</v>
       </c>
       <c r="F114" t="n">
-        <v>399</v>
+        <v>400.9483</v>
       </c>
       <c r="G114" t="n">
-        <v>196.5199999999999</v>
+        <v>196.5349999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4789,14 +4393,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4806,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" t="n">
         <v>194</v>
       </c>
       <c r="D115" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E115" t="n">
         <v>194</v>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>399</v>
       </c>
       <c r="G115" t="n">
-        <v>196.5049999999999</v>
+        <v>196.5199999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4830,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4859,10 +4451,10 @@
         <v>194</v>
       </c>
       <c r="F116" t="n">
-        <v>347.6007</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>196.4899999999999</v>
+        <v>196.5049999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4871,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4900,10 +4486,10 @@
         <v>194</v>
       </c>
       <c r="F117" t="n">
-        <v>1293.33</v>
+        <v>347.6007</v>
       </c>
       <c r="G117" t="n">
-        <v>196.4749999999999</v>
+        <v>196.4899999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4912,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4932,19 +4512,19 @@
         <v>194</v>
       </c>
       <c r="C118" t="n">
-        <v>195.9</v>
+        <v>194</v>
       </c>
       <c r="D118" t="n">
-        <v>195.9</v>
+        <v>194</v>
       </c>
       <c r="E118" t="n">
-        <v>193.8</v>
+        <v>194</v>
       </c>
       <c r="F118" t="n">
-        <v>813.0576</v>
+        <v>1293.33</v>
       </c>
       <c r="G118" t="n">
-        <v>196.4916666666666</v>
+        <v>196.4749999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4953,14 +4533,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4970,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>194.4</v>
+        <v>194</v>
       </c>
       <c r="C119" t="n">
-        <v>194.4</v>
+        <v>195.9</v>
       </c>
       <c r="D119" t="n">
-        <v>194.4</v>
+        <v>195.9</v>
       </c>
       <c r="E119" t="n">
-        <v>194.4</v>
+        <v>193.8</v>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>813.0576</v>
       </c>
       <c r="G119" t="n">
-        <v>196.5149999999999</v>
+        <v>196.4916666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4994,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5011,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>195.9</v>
+        <v>194.4</v>
       </c>
       <c r="C120" t="n">
-        <v>195</v>
+        <v>194.4</v>
       </c>
       <c r="D120" t="n">
-        <v>196.9</v>
+        <v>194.4</v>
       </c>
       <c r="E120" t="n">
-        <v>195</v>
+        <v>194.4</v>
       </c>
       <c r="F120" t="n">
-        <v>1131.7487</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>196.5466666666666</v>
+        <v>196.5149999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5035,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5052,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="C121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D121" t="n">
-        <v>196</v>
+        <v>196.9</v>
       </c>
       <c r="E121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F121" t="n">
-        <v>480.114</v>
+        <v>1131.7487</v>
       </c>
       <c r="G121" t="n">
-        <v>196.4633333333333</v>
+        <v>196.5466666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5076,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5105,10 +4661,10 @@
         <v>196</v>
       </c>
       <c r="F122" t="n">
-        <v>13.0059</v>
+        <v>480.114</v>
       </c>
       <c r="G122" t="n">
-        <v>196.3933333333333</v>
+        <v>196.4633333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5117,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5146,10 +4696,10 @@
         <v>196</v>
       </c>
       <c r="F123" t="n">
-        <v>395.8801</v>
+        <v>13.0059</v>
       </c>
       <c r="G123" t="n">
-        <v>196.3099999999999</v>
+        <v>196.3933333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5158,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5175,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="C124" t="n">
-        <v>193.5</v>
+        <v>196</v>
       </c>
       <c r="D124" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="E124" t="n">
-        <v>193.5</v>
+        <v>196</v>
       </c>
       <c r="F124" t="n">
-        <v>275.9941</v>
+        <v>395.8801</v>
       </c>
       <c r="G124" t="n">
-        <v>196.2666666666666</v>
+        <v>196.3099999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5199,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5216,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="C125" t="n">
-        <v>196</v>
+        <v>193.5</v>
       </c>
       <c r="D125" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="E125" t="n">
-        <v>196</v>
+        <v>193.5</v>
       </c>
       <c r="F125" t="n">
-        <v>23.9611</v>
+        <v>275.9941</v>
       </c>
       <c r="G125" t="n">
-        <v>196.2649999999999</v>
+        <v>196.2666666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5240,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5257,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>193.6</v>
+        <v>196</v>
       </c>
       <c r="C126" t="n">
-        <v>193.6</v>
+        <v>196</v>
       </c>
       <c r="D126" t="n">
-        <v>193.6</v>
+        <v>196</v>
       </c>
       <c r="E126" t="n">
-        <v>193.6</v>
+        <v>196</v>
       </c>
       <c r="F126" t="n">
-        <v>9760.786700000001</v>
+        <v>23.9611</v>
       </c>
       <c r="G126" t="n">
-        <v>196.1466666666666</v>
+        <v>196.2649999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5281,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5301,19 +4827,19 @@
         <v>193.6</v>
       </c>
       <c r="C127" t="n">
-        <v>195.7</v>
+        <v>193.6</v>
       </c>
       <c r="D127" t="n">
-        <v>195.7</v>
+        <v>193.6</v>
       </c>
       <c r="E127" t="n">
         <v>193.6</v>
       </c>
       <c r="F127" t="n">
-        <v>61.8959</v>
+        <v>9760.786700000001</v>
       </c>
       <c r="G127" t="n">
-        <v>196.1383333333332</v>
+        <v>196.1466666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5322,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5342,19 +4862,19 @@
         <v>193.6</v>
       </c>
       <c r="C128" t="n">
-        <v>193.5</v>
+        <v>195.7</v>
       </c>
       <c r="D128" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="E128" t="n">
         <v>193.6</v>
       </c>
-      <c r="E128" t="n">
-        <v>193.5</v>
-      </c>
       <c r="F128" t="n">
-        <v>11793.7348</v>
+        <v>61.8959</v>
       </c>
       <c r="G128" t="n">
-        <v>196.0816666666666</v>
+        <v>196.1383333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5363,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5380,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>195.5</v>
+        <v>193.6</v>
       </c>
       <c r="C129" t="n">
-        <v>195.5</v>
+        <v>193.5</v>
       </c>
       <c r="D129" t="n">
-        <v>195.5</v>
+        <v>193.6</v>
       </c>
       <c r="E129" t="n">
-        <v>195.5</v>
+        <v>193.5</v>
       </c>
       <c r="F129" t="n">
-        <v>2.7555</v>
+        <v>11793.7348</v>
       </c>
       <c r="G129" t="n">
-        <v>196.0583333333333</v>
+        <v>196.0816666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5404,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5421,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>194</v>
+        <v>195.5</v>
       </c>
       <c r="C130" t="n">
-        <v>193.1</v>
+        <v>195.5</v>
       </c>
       <c r="D130" t="n">
-        <v>194</v>
+        <v>195.5</v>
       </c>
       <c r="E130" t="n">
-        <v>193.1</v>
+        <v>195.5</v>
       </c>
       <c r="F130" t="n">
-        <v>14248.3334</v>
+        <v>2.7555</v>
       </c>
       <c r="G130" t="n">
-        <v>195.9949999999999</v>
+        <v>196.0583333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5445,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5462,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>193.3</v>
+        <v>194</v>
       </c>
       <c r="C131" t="n">
-        <v>193.3</v>
+        <v>193.1</v>
       </c>
       <c r="D131" t="n">
-        <v>193.3</v>
+        <v>194</v>
       </c>
       <c r="E131" t="n">
-        <v>193.3</v>
+        <v>193.1</v>
       </c>
       <c r="F131" t="n">
-        <v>4702.1455</v>
+        <v>14248.3334</v>
       </c>
       <c r="G131" t="n">
-        <v>195.9116666666666</v>
+        <v>195.9949999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5486,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5503,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>194.9</v>
+        <v>193.3</v>
       </c>
       <c r="C132" t="n">
-        <v>194.9</v>
+        <v>193.3</v>
       </c>
       <c r="D132" t="n">
-        <v>194.9</v>
+        <v>193.3</v>
       </c>
       <c r="E132" t="n">
-        <v>194.9</v>
+        <v>193.3</v>
       </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>4702.1455</v>
       </c>
       <c r="G132" t="n">
-        <v>195.8783333333332</v>
+        <v>195.9116666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5527,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5556,10 +5046,10 @@
         <v>194.9</v>
       </c>
       <c r="F133" t="n">
-        <v>733.15</v>
+        <v>5</v>
       </c>
       <c r="G133" t="n">
-        <v>195.8216666666666</v>
+        <v>195.8783333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5568,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5585,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="C134" t="n">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="D134" t="n">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="E134" t="n">
-        <v>195</v>
+        <v>194.9</v>
       </c>
       <c r="F134" t="n">
-        <v>27.9978</v>
+        <v>733.15</v>
       </c>
       <c r="G134" t="n">
-        <v>195.7666666666666</v>
+        <v>195.8216666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5609,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5638,10 +5116,10 @@
         <v>195</v>
       </c>
       <c r="F135" t="n">
-        <v>535.6024</v>
+        <v>27.9978</v>
       </c>
       <c r="G135" t="n">
-        <v>195.735</v>
+        <v>195.7666666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5650,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5667,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>194.9</v>
+        <v>195</v>
       </c>
       <c r="C136" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E136" t="n">
-        <v>194.9</v>
+        <v>195</v>
       </c>
       <c r="F136" t="n">
-        <v>14.5176</v>
+        <v>535.6024</v>
       </c>
       <c r="G136" t="n">
-        <v>195.6683333333333</v>
+        <v>195.735</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5691,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5711,19 +5177,19 @@
         <v>194.9</v>
       </c>
       <c r="C137" t="n">
-        <v>194.9</v>
+        <v>196</v>
       </c>
       <c r="D137" t="n">
-        <v>194.9</v>
+        <v>196</v>
       </c>
       <c r="E137" t="n">
         <v>194.9</v>
       </c>
       <c r="F137" t="n">
-        <v>257.85</v>
+        <v>14.5176</v>
       </c>
       <c r="G137" t="n">
-        <v>195.6316666666666</v>
+        <v>195.6683333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5732,14 +5198,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5749,7 +5209,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="C138" t="n">
         <v>194.9</v>
@@ -5758,13 +5218,13 @@
         <v>194.9</v>
       </c>
       <c r="E138" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="F138" t="n">
-        <v>9188.8349</v>
+        <v>257.85</v>
       </c>
       <c r="G138" t="n">
-        <v>195.6616666666666</v>
+        <v>195.6316666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5773,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5790,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C139" t="n">
-        <v>196</v>
+        <v>194.9</v>
       </c>
       <c r="D139" t="n">
-        <v>196</v>
+        <v>194.9</v>
       </c>
       <c r="E139" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F139" t="n">
-        <v>642.1442</v>
+        <v>9188.8349</v>
       </c>
       <c r="G139" t="n">
-        <v>195.6466666666666</v>
+        <v>195.6616666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5814,14 +5268,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5831,19 +5279,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="C140" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="D140" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="E140" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="F140" t="n">
-        <v>10197.7256</v>
+        <v>642.1442</v>
       </c>
       <c r="G140" t="n">
         <v>195.6466666666666</v>
@@ -5855,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5872,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>196.8</v>
+        <v>196.9</v>
       </c>
       <c r="C141" t="n">
-        <v>196.8</v>
+        <v>196.9</v>
       </c>
       <c r="D141" t="n">
-        <v>196.8</v>
+        <v>196.9</v>
       </c>
       <c r="E141" t="n">
-        <v>196.8</v>
+        <v>196.9</v>
       </c>
       <c r="F141" t="n">
-        <v>2916.2433</v>
+        <v>10197.7256</v>
       </c>
       <c r="G141" t="n">
-        <v>195.6433333333333</v>
+        <v>195.6466666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5896,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5913,40 +5349,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>195.5</v>
+        <v>196.8</v>
       </c>
       <c r="C142" t="n">
-        <v>195.5</v>
+        <v>196.8</v>
       </c>
       <c r="D142" t="n">
-        <v>195.5</v>
+        <v>196.8</v>
       </c>
       <c r="E142" t="n">
-        <v>195.5</v>
+        <v>196.8</v>
       </c>
       <c r="F142" t="n">
-        <v>1005.3954</v>
+        <v>2916.2433</v>
       </c>
       <c r="G142" t="n">
-        <v>195.6199999999999</v>
+        <v>195.6433333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>0.9888993390950687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5954,28 +5384,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="C143" t="n">
-        <v>194.9</v>
+        <v>195.5</v>
       </c>
       <c r="D143" t="n">
-        <v>195</v>
+        <v>195.5</v>
       </c>
       <c r="E143" t="n">
-        <v>194.9</v>
+        <v>195.5</v>
       </c>
       <c r="F143" t="n">
-        <v>1500.0264</v>
+        <v>1005.3954</v>
       </c>
       <c r="G143" t="n">
-        <v>195.5516666666666</v>
+        <v>195.6199999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5989,19 +5419,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C144" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="D144" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E144" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="F144" t="n">
-        <v>3855.9511</v>
+        <v>1500.0264</v>
       </c>
       <c r="G144" t="n">
         <v>195.5516666666666</v>
@@ -6024,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>194.9</v>
+        <v>194</v>
       </c>
       <c r="C145" t="n">
-        <v>194.9</v>
+        <v>194</v>
       </c>
       <c r="D145" t="n">
-        <v>194.9</v>
+        <v>194</v>
       </c>
       <c r="E145" t="n">
-        <v>194.9</v>
+        <v>194</v>
       </c>
       <c r="F145" t="n">
-        <v>654.6202</v>
+        <v>3855.9511</v>
       </c>
       <c r="G145" t="n">
-        <v>195.5499999999999</v>
+        <v>195.5516666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6059,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="C146" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="D146" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="E146" t="n">
-        <v>194</v>
+        <v>194.9</v>
       </c>
       <c r="F146" t="n">
-        <v>9.620200000000001</v>
+        <v>654.6202</v>
       </c>
       <c r="G146" t="n">
-        <v>195.4699999999999</v>
+        <v>195.5499999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6106,10 +5536,10 @@
         <v>194</v>
       </c>
       <c r="F147" t="n">
-        <v>10000</v>
+        <v>9.620200000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>195.3899999999999</v>
+        <v>195.4699999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6129,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C148" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="D148" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E148" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="F148" t="n">
-        <v>16701.3719</v>
+        <v>10000</v>
       </c>
       <c r="G148" t="n">
-        <v>195.3549999999999</v>
+        <v>195.3899999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6164,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C149" t="n">
-        <v>194</v>
+        <v>193.1</v>
       </c>
       <c r="D149" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E149" t="n">
-        <v>194</v>
+        <v>193.1</v>
       </c>
       <c r="F149" t="n">
-        <v>2.8005</v>
+        <v>16701.3719</v>
       </c>
       <c r="G149" t="n">
-        <v>195.3349999999999</v>
+        <v>195.3549999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6211,10 +5641,10 @@
         <v>194</v>
       </c>
       <c r="F150" t="n">
-        <v>607.6832000000001</v>
+        <v>2.8005</v>
       </c>
       <c r="G150" t="n">
-        <v>195.2566666666666</v>
+        <v>195.3349999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6234,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="C151" t="n">
-        <v>192.9</v>
+        <v>194</v>
       </c>
       <c r="D151" t="n">
-        <v>193.1</v>
+        <v>194</v>
       </c>
       <c r="E151" t="n">
-        <v>192.9</v>
+        <v>194</v>
       </c>
       <c r="F151" t="n">
-        <v>22051.8181</v>
+        <v>607.6832000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>195.2049999999999</v>
+        <v>195.2566666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6269,19 +5699,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>193</v>
+        <v>193.1</v>
       </c>
       <c r="C152" t="n">
-        <v>193</v>
+        <v>192.9</v>
       </c>
       <c r="D152" t="n">
-        <v>193</v>
+        <v>193.1</v>
       </c>
       <c r="E152" t="n">
-        <v>193</v>
+        <v>192.9</v>
       </c>
       <c r="F152" t="n">
-        <v>23.7863</v>
+        <v>22051.8181</v>
       </c>
       <c r="G152" t="n">
         <v>195.2049999999999</v>
@@ -6304,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="C153" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="D153" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="E153" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="F153" t="n">
-        <v>493.5253</v>
+        <v>23.7863</v>
       </c>
       <c r="G153" t="n">
-        <v>195.1249999999999</v>
+        <v>195.2049999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6339,28 +5769,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>195.9</v>
+        <v>193.1</v>
       </c>
       <c r="C154" t="n">
-        <v>195.9</v>
+        <v>193.1</v>
       </c>
       <c r="D154" t="n">
-        <v>195.9</v>
+        <v>193.1</v>
       </c>
       <c r="E154" t="n">
-        <v>195.9</v>
+        <v>193.1</v>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>493.5253</v>
       </c>
       <c r="G154" t="n">
-        <v>195.1566666666666</v>
+        <v>195.1249999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6386,16 +5816,16 @@
         <v>195.9</v>
       </c>
       <c r="F155" t="n">
-        <v>2705.0102</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>195.1866666666666</v>
+        <v>195.1566666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6421,10 +5851,10 @@
         <v>195.9</v>
       </c>
       <c r="F156" t="n">
-        <v>246.025</v>
+        <v>2705.0102</v>
       </c>
       <c r="G156" t="n">
-        <v>195.1533333333332</v>
+        <v>195.1866666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6450,16 +5880,16 @@
         <v>195.9</v>
       </c>
       <c r="D157" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="E157" t="n">
         <v>195.9</v>
       </c>
       <c r="F157" t="n">
-        <v>164.6226</v>
+        <v>246.025</v>
       </c>
       <c r="G157" t="n">
-        <v>195.1683333333332</v>
+        <v>195.1533333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6482,7 +5912,7 @@
         <v>195.9</v>
       </c>
       <c r="C158" t="n">
-        <v>196</v>
+        <v>195.9</v>
       </c>
       <c r="D158" t="n">
         <v>196</v>
@@ -6491,7 +5921,7 @@
         <v>195.9</v>
       </c>
       <c r="F158" t="n">
-        <v>1371.1837</v>
+        <v>164.6226</v>
       </c>
       <c r="G158" t="n">
         <v>195.1683333333332</v>
@@ -6514,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>196.1</v>
+        <v>195.9</v>
       </c>
       <c r="C159" t="n">
-        <v>196.1</v>
+        <v>196</v>
       </c>
       <c r="D159" t="n">
-        <v>196.1</v>
+        <v>196</v>
       </c>
       <c r="E159" t="n">
-        <v>196.1</v>
+        <v>195.9</v>
       </c>
       <c r="F159" t="n">
-        <v>33.512</v>
+        <v>1371.1837</v>
       </c>
       <c r="G159" t="n">
-        <v>195.1866666666666</v>
+        <v>195.1683333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6561,10 +5991,10 @@
         <v>196.1</v>
       </c>
       <c r="F160" t="n">
-        <v>2788.3711</v>
+        <v>33.512</v>
       </c>
       <c r="G160" t="n">
-        <v>195.2116666666666</v>
+        <v>195.1866666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6596,10 +6026,10 @@
         <v>196.1</v>
       </c>
       <c r="F161" t="n">
-        <v>20000</v>
+        <v>2788.3711</v>
       </c>
       <c r="G161" t="n">
-        <v>195.2133333333332</v>
+        <v>195.2116666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6619,7 +6049,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>195.9</v>
+        <v>196.1</v>
       </c>
       <c r="C162" t="n">
         <v>196.1</v>
@@ -6628,13 +6058,13 @@
         <v>196.1</v>
       </c>
       <c r="E162" t="n">
-        <v>195.9</v>
+        <v>196.1</v>
       </c>
       <c r="F162" t="n">
-        <v>708.2353000000001</v>
+        <v>20000</v>
       </c>
       <c r="G162" t="n">
-        <v>195.2149999999999</v>
+        <v>195.2133333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6654,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C163" t="n">
         <v>196.1</v>
       </c>
-      <c r="C163" t="n">
-        <v>196.8</v>
-      </c>
       <c r="D163" t="n">
-        <v>196.8</v>
+        <v>196.1</v>
       </c>
       <c r="E163" t="n">
-        <v>196.1</v>
+        <v>195.9</v>
       </c>
       <c r="F163" t="n">
-        <v>600</v>
+        <v>708.2353000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>195.2299999999999</v>
+        <v>195.2149999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6689,7 +6119,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>195.4</v>
+        <v>196.1</v>
       </c>
       <c r="C164" t="n">
         <v>196.8</v>
@@ -6698,13 +6128,13 @@
         <v>196.8</v>
       </c>
       <c r="E164" t="n">
-        <v>195.4</v>
+        <v>196.1</v>
       </c>
       <c r="F164" t="n">
-        <v>123.7863</v>
+        <v>600</v>
       </c>
       <c r="G164" t="n">
-        <v>195.2183333333332</v>
+        <v>195.2299999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6727,19 +6157,19 @@
         <v>195.4</v>
       </c>
       <c r="C165" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="D165" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="E165" t="n">
         <v>195.4</v>
       </c>
       <c r="F165" t="n">
-        <v>3991.349</v>
+        <v>123.7863</v>
       </c>
       <c r="G165" t="n">
-        <v>195.1833333333332</v>
+        <v>195.2183333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6759,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="C166" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="D166" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="E166" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="F166" t="n">
-        <v>2.6</v>
+        <v>3991.349</v>
       </c>
       <c r="G166" t="n">
-        <v>195.1716666666665</v>
+        <v>195.1833333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6794,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="C167" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="D167" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="E167" t="n">
-        <v>195.4</v>
+        <v>196.8</v>
       </c>
       <c r="F167" t="n">
-        <v>184.18</v>
+        <v>2.6</v>
       </c>
       <c r="G167" t="n">
-        <v>195.1366666666665</v>
+        <v>195.1716666666665</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6829,19 +6259,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="C168" t="n">
-        <v>197</v>
+        <v>195.4</v>
       </c>
       <c r="D168" t="n">
-        <v>197</v>
+        <v>195.4</v>
       </c>
       <c r="E168" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="F168" t="n">
-        <v>4.2</v>
+        <v>184.18</v>
       </c>
       <c r="G168" t="n">
         <v>195.1366666666665</v>
@@ -6864,7 +6294,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>197</v>
+        <v>196.8</v>
       </c>
       <c r="C169" t="n">
         <v>197</v>
@@ -6873,10 +6303,10 @@
         <v>197</v>
       </c>
       <c r="E169" t="n">
-        <v>197</v>
+        <v>196.8</v>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="G169" t="n">
         <v>195.1366666666665</v>
@@ -6911,10 +6341,10 @@
         <v>197</v>
       </c>
       <c r="F170" t="n">
-        <v>3073.313</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
-        <v>195.1549999999999</v>
+        <v>195.1366666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6934,28 +6364,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>197.1</v>
+        <v>197</v>
       </c>
       <c r="C171" t="n">
-        <v>197.1</v>
+        <v>197</v>
       </c>
       <c r="D171" t="n">
-        <v>197.1</v>
+        <v>197</v>
       </c>
       <c r="E171" t="n">
-        <v>197.1</v>
+        <v>197</v>
       </c>
       <c r="F171" t="n">
-        <v>2.6</v>
+        <v>3073.313</v>
       </c>
       <c r="G171" t="n">
-        <v>195.1816666666665</v>
+        <v>195.1549999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6972,19 +6402,19 @@
         <v>197.1</v>
       </c>
       <c r="C172" t="n">
-        <v>197.5</v>
+        <v>197.1</v>
       </c>
       <c r="D172" t="n">
-        <v>197.5</v>
+        <v>197.1</v>
       </c>
       <c r="E172" t="n">
         <v>197.1</v>
       </c>
       <c r="F172" t="n">
-        <v>2151.8128</v>
+        <v>2.6</v>
       </c>
       <c r="G172" t="n">
-        <v>195.2083333333332</v>
+        <v>195.1816666666665</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7004,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="C173" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="D173" t="n">
-        <v>197</v>
+        <v>197.5</v>
       </c>
       <c r="E173" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="F173" t="n">
-        <v>2068.5231</v>
+        <v>2151.8128</v>
       </c>
       <c r="G173" t="n">
-        <v>195.2333333333332</v>
+        <v>195.2083333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7051,10 +6481,10 @@
         <v>197</v>
       </c>
       <c r="F174" t="n">
-        <v>2849.1108</v>
+        <v>2068.5231</v>
       </c>
       <c r="G174" t="n">
-        <v>195.2833333333332</v>
+        <v>195.2333333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7077,19 +6507,19 @@
         <v>197</v>
       </c>
       <c r="C175" t="n">
-        <v>195.4</v>
+        <v>197</v>
       </c>
       <c r="D175" t="n">
         <v>197</v>
       </c>
       <c r="E175" t="n">
-        <v>195.4</v>
+        <v>197</v>
       </c>
       <c r="F175" t="n">
-        <v>11073.4517</v>
+        <v>2849.1108</v>
       </c>
       <c r="G175" t="n">
-        <v>195.3066666666665</v>
+        <v>195.2833333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7109,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>197.5</v>
+        <v>197</v>
       </c>
       <c r="C176" t="n">
-        <v>197.5</v>
+        <v>195.4</v>
       </c>
       <c r="D176" t="n">
-        <v>197.5</v>
+        <v>197</v>
       </c>
       <c r="E176" t="n">
-        <v>197.5</v>
+        <v>195.4</v>
       </c>
       <c r="F176" t="n">
-        <v>4</v>
+        <v>11073.4517</v>
       </c>
       <c r="G176" t="n">
-        <v>195.3649999999999</v>
+        <v>195.3066666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7144,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="C177" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="D177" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="E177" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="F177" t="n">
-        <v>3408.4723</v>
+        <v>4</v>
       </c>
       <c r="G177" t="n">
-        <v>195.3983333333332</v>
+        <v>195.3649999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7179,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="C178" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="D178" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E178" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="F178" t="n">
-        <v>4</v>
+        <v>3408.4723</v>
       </c>
       <c r="G178" t="n">
-        <v>195.4249999999999</v>
+        <v>195.3983333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7229,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="G179" t="n">
-        <v>195.4766666666665</v>
+        <v>195.4249999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7249,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="C180" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="D180" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="E180" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="G180" t="n">
-        <v>195.4933333333332</v>
+        <v>195.4766666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7296,7 +6726,7 @@
         <v>196</v>
       </c>
       <c r="F181" t="n">
-        <v>66.73</v>
+        <v>800</v>
       </c>
       <c r="G181" t="n">
         <v>195.4933333333332</v>
@@ -7331,7 +6761,7 @@
         <v>196</v>
       </c>
       <c r="F182" t="n">
-        <v>767.6561</v>
+        <v>66.73</v>
       </c>
       <c r="G182" t="n">
         <v>195.4933333333332</v>
@@ -7366,7 +6796,7 @@
         <v>196</v>
       </c>
       <c r="F183" t="n">
-        <v>4300</v>
+        <v>767.6561</v>
       </c>
       <c r="G183" t="n">
         <v>195.4933333333332</v>
@@ -7401,10 +6831,10 @@
         <v>196</v>
       </c>
       <c r="F184" t="n">
-        <v>330.3015</v>
+        <v>4300</v>
       </c>
       <c r="G184" t="n">
-        <v>195.5349999999999</v>
+        <v>195.4933333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7424,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="C185" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="D185" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E185" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="F185" t="n">
-        <v>2525.3297</v>
+        <v>330.3015</v>
       </c>
       <c r="G185" t="n">
-        <v>195.5599999999999</v>
+        <v>195.5349999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7462,19 +6892,19 @@
         <v>197.5</v>
       </c>
       <c r="C186" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="D186" t="n">
         <v>197.5</v>
       </c>
       <c r="E186" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="F186" t="n">
-        <v>1768.668</v>
+        <v>2525.3297</v>
       </c>
       <c r="G186" t="n">
-        <v>195.5999999999999</v>
+        <v>195.5599999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7494,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="C187" t="n">
         <v>196</v>
       </c>
       <c r="D187" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="E187" t="n">
         <v>196</v>
       </c>
       <c r="F187" t="n">
-        <v>852.1872</v>
+        <v>1768.668</v>
       </c>
       <c r="G187" t="n">
-        <v>195.6049999999999</v>
+        <v>195.5999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7532,19 +6962,19 @@
         <v>196</v>
       </c>
       <c r="C188" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="D188" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E188" t="n">
         <v>196</v>
       </c>
       <c r="F188" t="n">
-        <v>2522.4873</v>
+        <v>852.1872</v>
       </c>
       <c r="G188" t="n">
-        <v>195.6716666666665</v>
+        <v>195.6049999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7564,7 +6994,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>197.3</v>
+        <v>196</v>
       </c>
       <c r="C189" t="n">
         <v>197.5</v>
@@ -7573,13 +7003,13 @@
         <v>197.5</v>
       </c>
       <c r="E189" t="n">
-        <v>197.3</v>
+        <v>196</v>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2522.4873</v>
       </c>
       <c r="G189" t="n">
-        <v>195.7049999999999</v>
+        <v>195.6716666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7599,7 +7029,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="C190" t="n">
         <v>197.5</v>
@@ -7608,13 +7038,13 @@
         <v>197.5</v>
       </c>
       <c r="E190" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="F190" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="G190" t="n">
-        <v>195.7783333333332</v>
+        <v>195.7049999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7637,19 +7067,19 @@
         <v>197.5</v>
       </c>
       <c r="C191" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="D191" t="n">
         <v>197.5</v>
       </c>
       <c r="E191" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="F191" t="n">
-        <v>10396.5084</v>
+        <v>24</v>
       </c>
       <c r="G191" t="n">
-        <v>195.8233333333332</v>
+        <v>195.7783333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7669,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>195.4</v>
+        <v>197.5</v>
       </c>
       <c r="C192" t="n">
-        <v>195.4</v>
+        <v>196</v>
       </c>
       <c r="D192" t="n">
-        <v>195.4</v>
+        <v>197.5</v>
       </c>
       <c r="E192" t="n">
-        <v>195.4</v>
+        <v>196</v>
       </c>
       <c r="F192" t="n">
-        <v>355.9098</v>
+        <v>10396.5084</v>
       </c>
       <c r="G192" t="n">
-        <v>195.8316666666665</v>
+        <v>195.8233333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7707,19 +7137,19 @@
         <v>195.4</v>
       </c>
       <c r="C193" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="D193" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="E193" t="n">
         <v>195.4</v>
       </c>
       <c r="F193" t="n">
-        <v>30.1857</v>
+        <v>355.9098</v>
       </c>
       <c r="G193" t="n">
-        <v>195.8499999999999</v>
+        <v>195.8316666666665</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7739,7 +7169,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="C194" t="n">
         <v>196</v>
@@ -7748,13 +7178,13 @@
         <v>196</v>
       </c>
       <c r="E194" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>30.1857</v>
       </c>
       <c r="G194" t="n">
-        <v>195.8666666666665</v>
+        <v>195.8499999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7774,7 +7204,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="C195" t="n">
         <v>196</v>
@@ -7783,13 +7213,13 @@
         <v>196</v>
       </c>
       <c r="E195" t="n">
-        <v>195.9</v>
+        <v>196</v>
       </c>
       <c r="F195" t="n">
-        <v>378.6705</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>195.8833333333332</v>
+        <v>195.8666666666665</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7809,22 +7239,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>195.4</v>
+        <v>195.9</v>
       </c>
       <c r="C196" t="n">
-        <v>195.4</v>
+        <v>196</v>
       </c>
       <c r="D196" t="n">
-        <v>195.4</v>
+        <v>196</v>
       </c>
       <c r="E196" t="n">
-        <v>195.4</v>
+        <v>195.9</v>
       </c>
       <c r="F196" t="n">
-        <v>104.3215</v>
+        <v>378.6705</v>
       </c>
       <c r="G196" t="n">
-        <v>195.8733333333332</v>
+        <v>195.8833333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7844,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="C197" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="D197" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="E197" t="n">
-        <v>196</v>
+        <v>195.4</v>
       </c>
       <c r="F197" t="n">
-        <v>6023.7214</v>
+        <v>104.3215</v>
       </c>
       <c r="G197" t="n">
-        <v>195.8916666666665</v>
+        <v>195.8733333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7882,19 +7312,19 @@
         <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="D198" t="n">
         <v>196</v>
       </c>
       <c r="E198" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="F198" t="n">
-        <v>1584.5692</v>
+        <v>6023.7214</v>
       </c>
       <c r="G198" t="n">
-        <v>195.8949999999999</v>
+        <v>195.8916666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7917,16 +7347,16 @@
         <v>196</v>
       </c>
       <c r="C199" t="n">
-        <v>196</v>
+        <v>195.1</v>
       </c>
       <c r="D199" t="n">
         <v>196</v>
       </c>
       <c r="E199" t="n">
-        <v>196</v>
+        <v>195.1</v>
       </c>
       <c r="F199" t="n">
-        <v>2.6</v>
+        <v>1584.5692</v>
       </c>
       <c r="G199" t="n">
         <v>195.8949999999999</v>
@@ -7949,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="C200" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="D200" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="E200" t="n">
-        <v>195.1</v>
+        <v>196</v>
       </c>
       <c r="F200" t="n">
-        <v>300</v>
+        <v>2.6</v>
       </c>
       <c r="G200" t="n">
-        <v>195.8649999999999</v>
+        <v>195.8949999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7984,22 +7414,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>195.8</v>
+        <v>195.1</v>
       </c>
       <c r="C201" t="n">
-        <v>195.8</v>
+        <v>195.1</v>
       </c>
       <c r="D201" t="n">
-        <v>195.8</v>
+        <v>195.1</v>
       </c>
       <c r="E201" t="n">
-        <v>195.8</v>
+        <v>195.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1062.0062</v>
+        <v>300</v>
       </c>
       <c r="G201" t="n">
-        <v>195.8483333333332</v>
+        <v>195.8649999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8022,19 +7452,19 @@
         <v>195.8</v>
       </c>
       <c r="C202" t="n">
-        <v>196</v>
+        <v>195.8</v>
       </c>
       <c r="D202" t="n">
-        <v>196</v>
+        <v>195.8</v>
       </c>
       <c r="E202" t="n">
         <v>195.8</v>
       </c>
       <c r="F202" t="n">
-        <v>534.6099</v>
+        <v>1062.0062</v>
       </c>
       <c r="G202" t="n">
-        <v>195.8566666666666</v>
+        <v>195.8483333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8054,7 +7484,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>196</v>
+        <v>195.8</v>
       </c>
       <c r="C203" t="n">
         <v>196</v>
@@ -8063,13 +7493,13 @@
         <v>196</v>
       </c>
       <c r="E203" t="n">
-        <v>196</v>
+        <v>195.8</v>
       </c>
       <c r="F203" t="n">
-        <v>100</v>
+        <v>534.6099</v>
       </c>
       <c r="G203" t="n">
-        <v>195.8749999999999</v>
+        <v>195.8566666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8101,10 +7531,10 @@
         <v>196</v>
       </c>
       <c r="F204" t="n">
-        <v>983.6741</v>
+        <v>100</v>
       </c>
       <c r="G204" t="n">
-        <v>195.9083333333332</v>
+        <v>195.8749999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8124,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>197.4</v>
+        <v>196</v>
       </c>
       <c r="C205" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="D205" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="E205" t="n">
-        <v>197.4</v>
+        <v>196</v>
       </c>
       <c r="F205" t="n">
-        <v>62</v>
+        <v>983.6741</v>
       </c>
       <c r="G205" t="n">
-        <v>195.9516666666666</v>
+        <v>195.9083333333332</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8159,22 +7589,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>196</v>
+        <v>197.4</v>
       </c>
       <c r="C206" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="D206" t="n">
-        <v>196</v>
+        <v>197.5</v>
       </c>
       <c r="E206" t="n">
-        <v>196</v>
+        <v>197.4</v>
       </c>
       <c r="F206" t="n">
-        <v>16.3259</v>
+        <v>62</v>
       </c>
       <c r="G206" t="n">
-        <v>195.9849999999999</v>
+        <v>195.9516666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8194,22 +7624,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="C207" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="D207" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="E207" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="F207" t="n">
-        <v>33.7543</v>
+        <v>16.3259</v>
       </c>
       <c r="G207" t="n">
-        <v>196.0149999999999</v>
+        <v>195.9849999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8241,10 +7671,10 @@
         <v>195.8</v>
       </c>
       <c r="F208" t="n">
-        <v>2737.5921</v>
+        <v>33.7543</v>
       </c>
       <c r="G208" t="n">
-        <v>196.0599999999999</v>
+        <v>196.0149999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8264,22 +7694,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>196.9</v>
+        <v>195.8</v>
       </c>
       <c r="C209" t="n">
-        <v>196.9</v>
+        <v>195.8</v>
       </c>
       <c r="D209" t="n">
-        <v>196.9</v>
+        <v>195.8</v>
       </c>
       <c r="E209" t="n">
-        <v>196.9</v>
+        <v>195.8</v>
       </c>
       <c r="F209" t="n">
-        <v>2.7</v>
+        <v>2737.5921</v>
       </c>
       <c r="G209" t="n">
-        <v>196.1083333333332</v>
+        <v>196.0599999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8311,10 +7741,10 @@
         <v>196.9</v>
       </c>
       <c r="F210" t="n">
-        <v>10.5728</v>
+        <v>2.7</v>
       </c>
       <c r="G210" t="n">
-        <v>196.1566666666666</v>
+        <v>196.1083333333332</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8334,22 +7764,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>195.4</v>
+        <v>196.9</v>
       </c>
       <c r="C211" t="n">
-        <v>195.4</v>
+        <v>196.9</v>
       </c>
       <c r="D211" t="n">
-        <v>195.4</v>
+        <v>196.9</v>
       </c>
       <c r="E211" t="n">
-        <v>195.4</v>
+        <v>196.9</v>
       </c>
       <c r="F211" t="n">
-        <v>1200</v>
+        <v>10.5728</v>
       </c>
       <c r="G211" t="n">
-        <v>196.1983333333332</v>
+        <v>196.1566666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8369,22 +7799,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>196.6</v>
+        <v>195.4</v>
       </c>
       <c r="C212" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="D212" t="n">
-        <v>196.8</v>
+        <v>195.4</v>
       </c>
       <c r="E212" t="n">
-        <v>196.6</v>
+        <v>195.4</v>
       </c>
       <c r="F212" t="n">
-        <v>1057.5959</v>
+        <v>1200</v>
       </c>
       <c r="G212" t="n">
-        <v>196.2616666666665</v>
+        <v>196.1983333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8404,22 +7834,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>196.9</v>
+        <v>196.6</v>
       </c>
       <c r="C213" t="n">
-        <v>197.5</v>
+        <v>196.8</v>
       </c>
       <c r="D213" t="n">
-        <v>197.5</v>
+        <v>196.8</v>
       </c>
       <c r="E213" t="n">
-        <v>196.9</v>
+        <v>196.6</v>
       </c>
       <c r="F213" t="n">
-        <v>18771.9052</v>
+        <v>1057.5959</v>
       </c>
       <c r="G213" t="n">
-        <v>196.3349999999999</v>
+        <v>196.2616666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8439,22 +7869,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="C214" t="n">
         <v>197.5</v>
       </c>
-      <c r="C214" t="n">
-        <v>199.8</v>
-      </c>
       <c r="D214" t="n">
-        <v>199.8</v>
+        <v>197.5</v>
       </c>
       <c r="E214" t="n">
-        <v>197.5</v>
+        <v>196.9</v>
       </c>
       <c r="F214" t="n">
-        <v>320.1894</v>
+        <v>18771.9052</v>
       </c>
       <c r="G214" t="n">
-        <v>196.3999999999998</v>
+        <v>196.3349999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8474,7 +7904,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>199.8</v>
+        <v>197.5</v>
       </c>
       <c r="C215" t="n">
         <v>199.8</v>
@@ -8483,13 +7913,13 @@
         <v>199.8</v>
       </c>
       <c r="E215" t="n">
-        <v>199.8</v>
+        <v>197.5</v>
       </c>
       <c r="F215" t="n">
-        <v>1133.763</v>
+        <v>320.1894</v>
       </c>
       <c r="G215" t="n">
-        <v>196.4649999999998</v>
+        <v>196.3999999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8521,16 +7951,16 @@
         <v>199.8</v>
       </c>
       <c r="F216" t="n">
-        <v>221.1639</v>
+        <v>1133.763</v>
       </c>
       <c r="G216" t="n">
-        <v>196.5299999999998</v>
+        <v>196.4649999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -8547,25 +7977,25 @@
         <v>199.8</v>
       </c>
       <c r="C217" t="n">
-        <v>200.8</v>
+        <v>199.8</v>
       </c>
       <c r="D217" t="n">
-        <v>200.8</v>
+        <v>199.8</v>
       </c>
       <c r="E217" t="n">
         <v>199.8</v>
       </c>
       <c r="F217" t="n">
-        <v>495.3769</v>
+        <v>221.1639</v>
       </c>
       <c r="G217" t="n">
-        <v>196.6116666666665</v>
+        <v>196.5299999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -8579,22 +8009,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="C218" t="n">
         <v>200.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>200</v>
       </c>
       <c r="D218" t="n">
         <v>200.8</v>
       </c>
       <c r="E218" t="n">
-        <v>200</v>
+        <v>199.8</v>
       </c>
       <c r="F218" t="n">
-        <v>4808.5375</v>
+        <v>495.3769</v>
       </c>
       <c r="G218" t="n">
-        <v>196.6783333333332</v>
+        <v>196.6116666666665</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8609,6 +8039,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="C219" t="n">
+        <v>200</v>
+      </c>
+      <c r="D219" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>200</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4808.5375</v>
+      </c>
+      <c r="G219" t="n">
+        <v>196.6783333333332</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:N229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4062.9342</v>
       </c>
       <c r="G2" t="n">
+        <v>198.7466666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>200.4816666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>23.3269</v>
       </c>
       <c r="G3" t="n">
+        <v>198.7266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>200.4649999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>23.3269</v>
       </c>
       <c r="G4" t="n">
+        <v>198.7800000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>200.4549999999998</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1236.966</v>
       </c>
       <c r="G5" t="n">
+        <v>198.7733333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>200.4366666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>259.3483</v>
       </c>
       <c r="G6" t="n">
+        <v>198.8666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>200.4449999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>496.2238</v>
       </c>
       <c r="G7" t="n">
+        <v>199.2733333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>200.5116666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>5488.3622</v>
       </c>
       <c r="G8" t="n">
+        <v>199.7400000000001</v>
+      </c>
+      <c r="H8" t="n">
         <v>200.6199999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4.8457</v>
       </c>
       <c r="G9" t="n">
+        <v>200.2133333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>200.6866666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>73.68819999999999</v>
       </c>
       <c r="G10" t="n">
+        <v>200.4933333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>200.7716666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
+        <v>200.4066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>200.7716666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>42.9336</v>
       </c>
       <c r="G12" t="n">
+        <v>200.5933333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>200.8766666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2597.7292</v>
       </c>
       <c r="G13" t="n">
+        <v>200.7866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>200.8899999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>292.3269</v>
       </c>
       <c r="G14" t="n">
+        <v>200.9666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>200.8999999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>27.6279</v>
       </c>
       <c r="G15" t="n">
+        <v>201.34</v>
+      </c>
+      <c r="H15" t="n">
         <v>200.9416666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>23.3269</v>
       </c>
       <c r="G16" t="n">
+        <v>201.7666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>201.0166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5312.4379</v>
       </c>
       <c r="G17" t="n">
+        <v>202.0533333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>201.0433333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
+        <v>202.3533333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>201.0883333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>42.9336</v>
       </c>
       <c r="G19" t="n">
+        <v>202.46</v>
+      </c>
+      <c r="H19" t="n">
         <v>201.0866666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>242.0574</v>
       </c>
       <c r="G20" t="n">
+        <v>202.56</v>
+      </c>
+      <c r="H20" t="n">
         <v>201.0599999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>23.3269</v>
       </c>
       <c r="G21" t="n">
+        <v>202.6466666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>201.0549999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>194.4575</v>
       </c>
       <c r="G22" t="n">
+        <v>202.4066666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>201.0766666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>24.6664</v>
       </c>
       <c r="G23" t="n">
+        <v>202.0866666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>201.0933333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>55.0325</v>
       </c>
       <c r="G24" t="n">
+        <v>201.86</v>
+      </c>
+      <c r="H24" t="n">
         <v>201.0866666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>103.2848</v>
       </c>
       <c r="G25" t="n">
+        <v>201.5933333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>201.0899999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10587.1944</v>
       </c>
       <c r="G26" t="n">
+        <v>201.2933333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>200.9949999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2412.1296</v>
       </c>
       <c r="G27" t="n">
+        <v>200.9733333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>200.9633333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1937.4259</v>
       </c>
       <c r="G28" t="n">
+        <v>200.92</v>
+      </c>
+      <c r="H28" t="n">
         <v>200.9283333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1069.4441</v>
       </c>
       <c r="G29" t="n">
+        <v>200.88</v>
+      </c>
+      <c r="H29" t="n">
         <v>200.8699999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>42.9336</v>
       </c>
       <c r="G30" t="n">
+        <v>200.7133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>200.7866666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>20526.6749</v>
       </c>
       <c r="G31" t="n">
+        <v>200.5466666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>200.7799999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>133.3696</v>
       </c>
       <c r="G32" t="n">
+        <v>200.6066666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>200.7816666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1691.9613</v>
       </c>
       <c r="G33" t="n">
+        <v>200.1133333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>200.6916666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>39.2031</v>
       </c>
       <c r="G34" t="n">
+        <v>199.6866666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>200.5933333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>747.1734</v>
       </c>
       <c r="G35" t="n">
+        <v>199.5333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>200.5399999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2818.7793</v>
       </c>
       <c r="G36" t="n">
+        <v>199.12</v>
+      </c>
+      <c r="H36" t="n">
         <v>200.4483333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>460.0473</v>
       </c>
       <c r="G37" t="n">
+        <v>198.7933333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>200.3499999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>18599.9044</v>
       </c>
       <c r="G38" t="n">
+        <v>198.4533333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>200.2433333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>784.1385</v>
       </c>
       <c r="G39" t="n">
+        <v>197.9533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>200.0583333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>4216.3105</v>
       </c>
       <c r="G40" t="n">
+        <v>197.5466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>199.9249999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>752.3078</v>
       </c>
       <c r="G41" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>199.7916666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>6.5323</v>
       </c>
       <c r="G42" t="n">
+        <v>196.9866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>199.6383333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>380.9231</v>
       </c>
       <c r="G43" t="n">
+        <v>196.58</v>
+      </c>
+      <c r="H43" t="n">
         <v>199.4533333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>39.2031</v>
       </c>
       <c r="G44" t="n">
+        <v>196.1666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>199.3166666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>6000</v>
       </c>
       <c r="G45" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>199.2083333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2371.0254</v>
       </c>
       <c r="G46" t="n">
+        <v>195.38</v>
+      </c>
+      <c r="H46" t="n">
         <v>199.1616666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>6.5323</v>
       </c>
       <c r="G47" t="n">
+        <v>194.8266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>199.0583333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>6430.4461</v>
       </c>
       <c r="G48" t="n">
+        <v>194.5866666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>198.9449999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>322.8461</v>
       </c>
       <c r="G49" t="n">
+        <v>194.4333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>198.8399999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>6566.1918</v>
       </c>
       <c r="G50" t="n">
+        <v>194.0533333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>198.7299999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>4796.5409</v>
       </c>
       <c r="G51" t="n">
+        <v>193.8466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>198.6199999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1495.9006</v>
       </c>
       <c r="G52" t="n">
+        <v>193.8066666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>198.5699999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>23.9611</v>
       </c>
       <c r="G53" t="n">
+        <v>193.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>198.4866666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>8099.0542</v>
       </c>
       <c r="G54" t="n">
+        <v>193.68</v>
+      </c>
+      <c r="H54" t="n">
         <v>198.4266666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>5.3266</v>
       </c>
       <c r="G55" t="n">
+        <v>193.74</v>
+      </c>
+      <c r="H55" t="n">
         <v>198.3433333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>32.6069</v>
       </c>
       <c r="G56" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>198.2249999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4864.6305</v>
       </c>
       <c r="G57" t="n">
+        <v>193.8733333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>198.1066666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2838.5871</v>
       </c>
       <c r="G58" t="n">
+        <v>193.9466666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>198.0583333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3403.2556</v>
       </c>
       <c r="G59" t="n">
+        <v>194.02</v>
+      </c>
+      <c r="H59" t="n">
         <v>198.0083333333332</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6.5323</v>
       </c>
       <c r="G60" t="n">
+        <v>193.9866666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>197.9266666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4010.9858</v>
       </c>
       <c r="G61" t="n">
+        <v>193.7466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>197.8599999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>3825.70034</v>
       </c>
       <c r="G62" t="n">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>197.9383333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>11025.1415</v>
       </c>
       <c r="G63" t="n">
+        <v>194.7866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>197.96</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>3</v>
       </c>
       <c r="G64" t="n">
+        <v>195.3066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>197.9716666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1005</v>
       </c>
       <c r="G65" t="n">
+        <v>195.5533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>197.925</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>200</v>
       </c>
       <c r="G66" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="H66" t="n">
         <v>197.8533333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>232.5799</v>
       </c>
       <c r="G67" t="n">
+        <v>196.1866666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>197.7983333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>184.4848</v>
       </c>
       <c r="G68" t="n">
+        <v>196.4066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>197.6533333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>99.9927</v>
       </c>
       <c r="G69" t="n">
+        <v>196.5866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>197.52</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,25 @@
         <v>856.2133</v>
       </c>
       <c r="G70" t="n">
+        <v>196.72</v>
+      </c>
+      <c r="H70" t="n">
         <v>197.4</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="L70" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3079,29 @@
         <v>5013.8032</v>
       </c>
       <c r="G71" t="n">
+        <v>196.8533333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>197.3366666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="L71" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3125,29 @@
         <v>1090.6134</v>
       </c>
       <c r="G72" t="n">
+        <v>197.08</v>
+      </c>
+      <c r="H72" t="n">
         <v>197.2283333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="L72" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3171,29 @@
         <v>1605</v>
       </c>
       <c r="G73" t="n">
+        <v>197.2133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>197.165</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3217,29 @@
         <v>421.7107</v>
       </c>
       <c r="G74" t="n">
+        <v>197.44</v>
+      </c>
+      <c r="H74" t="n">
         <v>197.1266666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="L74" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3263,27 @@
         <v>64.73990000000001</v>
       </c>
       <c r="G75" t="n">
+        <v>197.7933333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>197.0399999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3307,27 @@
         <v>15715.4311</v>
       </c>
       <c r="G76" t="n">
+        <v>198.0466666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>196.9299999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3351,27 @@
         <v>27.6279</v>
       </c>
       <c r="G77" t="n">
+        <v>197.98</v>
+      </c>
+      <c r="H77" t="n">
         <v>196.9199999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3395,27 @@
         <v>818.1664</v>
       </c>
       <c r="G78" t="n">
+        <v>197.7733333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>196.8149999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3439,27 @@
         <v>7366.5961</v>
       </c>
       <c r="G79" t="n">
+        <v>197.2466666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>196.6683333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3483,27 @@
         <v>1630.0265</v>
       </c>
       <c r="G80" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="H80" t="n">
         <v>196.61</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3527,27 @@
         <v>1375.2334</v>
       </c>
       <c r="G81" t="n">
+        <v>197.3533333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>196.5299999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3571,27 @@
         <v>618.0634</v>
       </c>
       <c r="G82" t="n">
+        <v>197.1066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>196.4733333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3615,27 @@
         <v>14616.3882</v>
       </c>
       <c r="G83" t="n">
+        <v>197.1533333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>196.4199999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3659,27 @@
         <v>154.0208</v>
       </c>
       <c r="G84" t="n">
+        <v>197.2933333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>196.3783333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3703,27 @@
         <v>690.6414</v>
       </c>
       <c r="G85" t="n">
+        <v>197.1000000000001</v>
+      </c>
+      <c r="H85" t="n">
         <v>196.2766666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3747,27 @@
         <v>1997.2461</v>
       </c>
       <c r="G86" t="n">
+        <v>196.9733333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>196.2566666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3791,27 @@
         <v>49.0448</v>
       </c>
       <c r="G87" t="n">
+        <v>197.0066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>196.2366666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3835,27 @@
         <v>551.9302</v>
       </c>
       <c r="G88" t="n">
+        <v>197.1333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>196.2183333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3879,27 @@
         <v>1382.0667</v>
       </c>
       <c r="G89" t="n">
+        <v>196.9266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>196.1383333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3923,27 @@
         <v>246.4982</v>
       </c>
       <c r="G90" t="n">
+        <v>196.72</v>
+      </c>
+      <c r="H90" t="n">
         <v>196.0416666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3967,27 @@
         <v>57.0591</v>
       </c>
       <c r="G91" t="n">
+        <v>196.84</v>
+      </c>
+      <c r="H91" t="n">
         <v>196.0033333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4011,27 @@
         <v>3234.0048</v>
       </c>
       <c r="G92" t="n">
+        <v>196.5733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>195.9116666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4055,27 @@
         <v>8949.874900000001</v>
       </c>
       <c r="G93" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="H93" t="n">
         <v>195.8616666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4099,27 @@
         <v>25.7403</v>
       </c>
       <c r="G94" t="n">
+        <v>196.62</v>
+      </c>
+      <c r="H94" t="n">
         <v>195.9016666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4143,27 @@
         <v>522.6228</v>
       </c>
       <c r="G95" t="n">
+        <v>196.4266666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>195.8333333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4187,27 @@
         <v>262.75</v>
       </c>
       <c r="G96" t="n">
+        <v>196.24</v>
+      </c>
+      <c r="H96" t="n">
         <v>195.8099999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4231,27 @@
         <v>3</v>
       </c>
       <c r="G97" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="H97" t="n">
         <v>195.8499999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4275,27 @@
         <v>70</v>
       </c>
       <c r="G98" t="n">
+        <v>196.1733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>195.8499999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4319,27 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
+        <v>195.9733333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>195.8833333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4363,27 @@
         <v>993.3631</v>
       </c>
       <c r="G100" t="n">
+        <v>196.04</v>
+      </c>
+      <c r="H100" t="n">
         <v>195.8999999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4407,29 @@
         <v>64.3</v>
       </c>
       <c r="G101" t="n">
+        <v>196.0133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>195.9099999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>195</v>
+      </c>
+      <c r="L101" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4453,27 @@
         <v>2789.5448</v>
       </c>
       <c r="G102" t="n">
+        <v>195.8266666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>195.9466666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4497,27 @@
         <v>383.4216</v>
       </c>
       <c r="G103" t="n">
+        <v>195.64</v>
+      </c>
+      <c r="H103" t="n">
         <v>195.9833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4541,27 @@
         <v>2003.4854</v>
       </c>
       <c r="G104" t="n">
+        <v>195.6866666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>196.0183333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,22 +4585,27 @@
         <v>8969.510399999999</v>
       </c>
       <c r="G105" t="n">
+        <v>195.84</v>
+      </c>
+      <c r="H105" t="n">
         <v>196.085</v>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,24 +4629,27 @@
         <v>152.666</v>
       </c>
       <c r="G106" t="n">
+        <v>195.76</v>
+      </c>
+      <c r="H106" t="n">
         <v>196.0983333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4133,24 +4673,27 @@
         <v>763.33</v>
       </c>
       <c r="G107" t="n">
+        <v>195.86</v>
+      </c>
+      <c r="H107" t="n">
         <v>196.1699999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4717,27 @@
         <v>9051.8181</v>
       </c>
       <c r="G108" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="H108" t="n">
         <v>196.2549999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4761,27 @@
         <v>7.7365</v>
       </c>
       <c r="G109" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="H109" t="n">
         <v>196.3183333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4805,27 @@
         <v>1138.2539</v>
       </c>
       <c r="G110" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="H110" t="n">
         <v>196.3949999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4849,27 @@
         <v>295.4652</v>
       </c>
       <c r="G111" t="n">
+        <v>196.42</v>
+      </c>
+      <c r="H111" t="n">
         <v>196.4533333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4893,27 @@
         <v>347.6008</v>
       </c>
       <c r="G112" t="n">
+        <v>196.26</v>
+      </c>
+      <c r="H112" t="n">
         <v>196.4633333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4937,27 @@
         <v>5.0498</v>
       </c>
       <c r="G113" t="n">
+        <v>196.32</v>
+      </c>
+      <c r="H113" t="n">
         <v>196.5133333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4981,27 @@
         <v>400.9483</v>
       </c>
       <c r="G114" t="n">
+        <v>196.2866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>196.5349999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5025,27 @@
         <v>399</v>
       </c>
       <c r="G115" t="n">
+        <v>196.22</v>
+      </c>
+      <c r="H115" t="n">
         <v>196.5199999999999</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5069,27 @@
         <v>2000</v>
       </c>
       <c r="G116" t="n">
+        <v>196.18</v>
+      </c>
+      <c r="H116" t="n">
         <v>196.5049999999999</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5113,27 @@
         <v>347.6007</v>
       </c>
       <c r="G117" t="n">
+        <v>196.0466666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>196.4899999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5157,27 @@
         <v>1293.33</v>
       </c>
       <c r="G118" t="n">
+        <v>195.9133333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>196.4749999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5201,29 @@
         <v>813.0576</v>
       </c>
       <c r="G119" t="n">
+        <v>195.9133333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>196.4916666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>194</v>
+      </c>
+      <c r="L119" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5247,27 @@
         <v>200</v>
       </c>
       <c r="G120" t="n">
+        <v>195.7066666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>196.5149999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5291,27 @@
         <v>1131.7487</v>
       </c>
       <c r="G121" t="n">
+        <v>195.54</v>
+      </c>
+      <c r="H121" t="n">
         <v>196.5466666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5335,27 @@
         <v>480.114</v>
       </c>
       <c r="G122" t="n">
+        <v>195.44</v>
+      </c>
+      <c r="H122" t="n">
         <v>196.4633333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5379,27 @@
         <v>13.0059</v>
       </c>
       <c r="G123" t="n">
+        <v>195.34</v>
+      </c>
+      <c r="H123" t="n">
         <v>196.3933333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5423,27 @@
         <v>395.8801</v>
       </c>
       <c r="G124" t="n">
+        <v>195.2733333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>196.3099999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5467,27 @@
         <v>275.9941</v>
       </c>
       <c r="G125" t="n">
+        <v>195.04</v>
+      </c>
+      <c r="H125" t="n">
         <v>196.2666666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5511,27 @@
         <v>23.9611</v>
       </c>
       <c r="G126" t="n">
+        <v>195.0466666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>196.2649999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5555,27 @@
         <v>9760.786700000001</v>
       </c>
       <c r="G127" t="n">
+        <v>194.92</v>
+      </c>
+      <c r="H127" t="n">
         <v>196.1466666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5599,27 @@
         <v>61.8959</v>
       </c>
       <c r="G128" t="n">
+        <v>194.9066666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>196.1383333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5643,27 @@
         <v>11793.7348</v>
       </c>
       <c r="G129" t="n">
+        <v>194.7733333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>196.0816666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5687,27 @@
         <v>2.7555</v>
       </c>
       <c r="G130" t="n">
+        <v>194.8733333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>196.0583333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5731,27 @@
         <v>14248.3334</v>
       </c>
       <c r="G131" t="n">
+        <v>194.8133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>195.9949999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5775,27 @@
         <v>4702.1455</v>
       </c>
       <c r="G132" t="n">
+        <v>194.7666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>195.9116666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5819,27 @@
         <v>5</v>
       </c>
       <c r="G133" t="n">
+        <v>194.8266666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>195.8783333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5863,27 @@
         <v>733.15</v>
       </c>
       <c r="G134" t="n">
+        <v>194.76</v>
+      </c>
+      <c r="H134" t="n">
         <v>195.8216666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5907,27 @@
         <v>27.9978</v>
       </c>
       <c r="G135" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>195.7666666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5951,27 @@
         <v>535.6024</v>
       </c>
       <c r="G136" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>195.735</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5995,29 @@
         <v>14.5176</v>
       </c>
       <c r="G137" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="H137" t="n">
         <v>195.6683333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>195</v>
+      </c>
+      <c r="L137" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6041,27 @@
         <v>257.85</v>
       </c>
       <c r="G138" t="n">
+        <v>194.7266666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>195.6316666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6085,29 @@
         <v>9188.8349</v>
       </c>
       <c r="G139" t="n">
+        <v>194.6533333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>195.6616666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="L139" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6131,27 @@
         <v>642.1442</v>
       </c>
       <c r="G140" t="n">
+        <v>194.82</v>
+      </c>
+      <c r="H140" t="n">
         <v>195.6466666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6175,27 @@
         <v>10197.7256</v>
       </c>
       <c r="G141" t="n">
+        <v>194.88</v>
+      </c>
+      <c r="H141" t="n">
         <v>195.6466666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6219,27 @@
         <v>2916.2433</v>
       </c>
       <c r="G142" t="n">
+        <v>195.0933333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>195.6433333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6263,27 @@
         <v>1005.3954</v>
       </c>
       <c r="G143" t="n">
+        <v>195.08</v>
+      </c>
+      <c r="H143" t="n">
         <v>195.6199999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6307,27 @@
         <v>1500.0264</v>
       </c>
       <c r="G144" t="n">
+        <v>195.1733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>195.5516666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6351,27 @@
         <v>3855.9511</v>
       </c>
       <c r="G145" t="n">
+        <v>195.0733333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>195.5516666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6395,29 @@
         <v>654.6202</v>
       </c>
       <c r="G146" t="n">
+        <v>195.1933333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>195.5499999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>194</v>
+      </c>
+      <c r="L146" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6441,29 @@
         <v>9.620200000000001</v>
       </c>
       <c r="G147" t="n">
+        <v>195.2400000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>195.4699999999999</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="L147" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6487,29 @@
         <v>10000</v>
       </c>
       <c r="G148" t="n">
+        <v>195.18</v>
+      </c>
+      <c r="H148" t="n">
         <v>195.3899999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>194</v>
+      </c>
+      <c r="L148" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6533,29 @@
         <v>16701.3719</v>
       </c>
       <c r="G149" t="n">
+        <v>195.06</v>
+      </c>
+      <c r="H149" t="n">
         <v>195.3549999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>194</v>
+      </c>
+      <c r="L149" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6579,27 @@
         <v>2.8005</v>
       </c>
       <c r="G150" t="n">
+        <v>194.9933333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>195.3349999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6623,29 @@
         <v>607.6832000000001</v>
       </c>
       <c r="G151" t="n">
+        <v>194.9266666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>195.2566666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>194</v>
+      </c>
+      <c r="L151" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6669,29 @@
         <v>22051.8181</v>
       </c>
       <c r="G152" t="n">
+        <v>194.7200000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>195.2049999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>194</v>
+      </c>
+      <c r="L152" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6715,27 @@
         <v>23.7863</v>
       </c>
       <c r="G153" t="n">
+        <v>194.5933333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>195.2049999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6759,27 @@
         <v>493.5253</v>
       </c>
       <c r="G154" t="n">
+        <v>194.4733333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>195.1249999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6803,29 @@
         <v>3</v>
       </c>
       <c r="G155" t="n">
+        <v>194.4666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>195.1566666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6849,27 @@
         <v>2705.0102</v>
       </c>
       <c r="G156" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>195.1866666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6893,29 @@
         <v>246.025</v>
       </c>
       <c r="G157" t="n">
+        <v>194.34</v>
+      </c>
+      <c r="H157" t="n">
         <v>195.1533333333332</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="L157" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6939,27 @@
         <v>164.6226</v>
       </c>
       <c r="G158" t="n">
+        <v>194.3666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>195.1683333333332</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6983,29 @@
         <v>1371.1837</v>
       </c>
       <c r="G159" t="n">
+        <v>194.44</v>
+      </c>
+      <c r="H159" t="n">
         <v>195.1683333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="L159" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +7029,29 @@
         <v>33.512</v>
       </c>
       <c r="G160" t="n">
+        <v>194.58</v>
+      </c>
+      <c r="H160" t="n">
         <v>195.1866666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>196</v>
+      </c>
+      <c r="L160" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +7075,29 @@
         <v>2788.3711</v>
       </c>
       <c r="G161" t="n">
+        <v>194.66</v>
+      </c>
+      <c r="H161" t="n">
         <v>195.2116666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +7121,29 @@
         <v>20000</v>
       </c>
       <c r="G162" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="H162" t="n">
         <v>195.2133333333332</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7167,27 @@
         <v>708.2353000000001</v>
       </c>
       <c r="G163" t="n">
+        <v>194.94</v>
+      </c>
+      <c r="H163" t="n">
         <v>195.2149999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7211,27 @@
         <v>600</v>
       </c>
       <c r="G164" t="n">
+        <v>195.1866666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>195.2299999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7255,27 @@
         <v>123.7863</v>
       </c>
       <c r="G165" t="n">
+        <v>195.3733333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>195.2183333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7299,27 @@
         <v>3991.349</v>
       </c>
       <c r="G166" t="n">
+        <v>195.4666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>195.1833333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7343,27 @@
         <v>2.6</v>
       </c>
       <c r="G167" t="n">
+        <v>195.7266666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>195.1716666666665</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7387,27 @@
         <v>184.18</v>
       </c>
       <c r="G168" t="n">
+        <v>195.8866666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>195.1366666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7431,27 @@
         <v>4.2</v>
       </c>
       <c r="G169" t="n">
+        <v>196.1466666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>195.1366666666665</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7475,27 @@
         <v>3</v>
       </c>
       <c r="G170" t="n">
+        <v>196.2200000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>195.1366666666665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7519,27 @@
         <v>3073.313</v>
       </c>
       <c r="G171" t="n">
+        <v>196.2933333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>195.1549999999999</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7563,27 @@
         <v>2.6</v>
       </c>
       <c r="G172" t="n">
+        <v>196.3733333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>195.1816666666665</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7607,27 @@
         <v>2151.8128</v>
       </c>
       <c r="G173" t="n">
+        <v>196.48</v>
+      </c>
+      <c r="H173" t="n">
         <v>195.2083333333332</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7651,27 @@
         <v>2068.5231</v>
       </c>
       <c r="G174" t="n">
+        <v>196.5466666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>195.2333333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7695,27 @@
         <v>2849.1108</v>
       </c>
       <c r="G175" t="n">
+        <v>196.6066666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>195.2833333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7739,27 @@
         <v>11073.4517</v>
       </c>
       <c r="G176" t="n">
+        <v>196.56</v>
+      </c>
+      <c r="H176" t="n">
         <v>195.3066666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7783,27 @@
         <v>4</v>
       </c>
       <c r="G177" t="n">
+        <v>196.6533333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>195.3649999999999</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7827,27 @@
         <v>3408.4723</v>
       </c>
       <c r="G178" t="n">
+        <v>196.6466666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>195.3983333333332</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7871,27 @@
         <v>4</v>
       </c>
       <c r="G179" t="n">
+        <v>196.6933333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>195.4249999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7915,27 @@
         <v>4</v>
       </c>
       <c r="G180" t="n">
+        <v>196.74</v>
+      </c>
+      <c r="H180" t="n">
         <v>195.4766666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7959,27 @@
         <v>800</v>
       </c>
       <c r="G181" t="n">
+        <v>196.78</v>
+      </c>
+      <c r="H181" t="n">
         <v>195.4933333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +8003,27 @@
         <v>66.73</v>
       </c>
       <c r="G182" t="n">
+        <v>196.7266666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>195.4933333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +8047,27 @@
         <v>767.6561</v>
       </c>
       <c r="G183" t="n">
+        <v>196.7666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>195.4933333333332</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +8091,27 @@
         <v>4300</v>
       </c>
       <c r="G184" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="H184" t="n">
         <v>195.4933333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +8135,27 @@
         <v>330.3015</v>
       </c>
       <c r="G185" t="n">
+        <v>196.6333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>195.5349999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +8179,29 @@
         <v>2525.3297</v>
       </c>
       <c r="G186" t="n">
+        <v>196.6666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>195.5599999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>196</v>
+      </c>
+      <c r="L186" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8225,29 @@
         <v>1768.668</v>
       </c>
       <c r="G187" t="n">
+        <v>196.5933333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>195.5999999999999</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="L187" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +8271,27 @@
         <v>852.1872</v>
       </c>
       <c r="G188" t="n">
+        <v>196.4933333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>195.6049999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +8315,29 @@
         <v>2522.4873</v>
       </c>
       <c r="G189" t="n">
+        <v>196.5266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>195.6716666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>196</v>
+      </c>
+      <c r="L189" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +8361,27 @@
         <v>200</v>
       </c>
       <c r="G190" t="n">
+        <v>196.56</v>
+      </c>
+      <c r="H190" t="n">
         <v>195.7049999999999</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +8405,27 @@
         <v>24</v>
       </c>
       <c r="G191" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="H191" t="n">
         <v>195.7783333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +8449,27 @@
         <v>10396.5084</v>
       </c>
       <c r="G192" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="H192" t="n">
         <v>195.8233333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8493,27 @@
         <v>355.9098</v>
       </c>
       <c r="G193" t="n">
+        <v>196.56</v>
+      </c>
+      <c r="H193" t="n">
         <v>195.8316666666665</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8537,27 @@
         <v>30.1857</v>
       </c>
       <c r="G194" t="n">
+        <v>196.46</v>
+      </c>
+      <c r="H194" t="n">
         <v>195.8499999999999</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8581,27 @@
         <v>3</v>
       </c>
       <c r="G195" t="n">
+        <v>196.36</v>
+      </c>
+      <c r="H195" t="n">
         <v>195.8666666666665</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8625,27 @@
         <v>378.6705</v>
       </c>
       <c r="G196" t="n">
+        <v>196.36</v>
+      </c>
+      <c r="H196" t="n">
         <v>195.8833333333332</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8669,27 @@
         <v>104.3215</v>
       </c>
       <c r="G197" t="n">
+        <v>196.32</v>
+      </c>
+      <c r="H197" t="n">
         <v>195.8733333333332</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8713,29 @@
         <v>6023.7214</v>
       </c>
       <c r="G198" t="n">
+        <v>196.32</v>
+      </c>
+      <c r="H198" t="n">
         <v>195.8916666666665</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="L198" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8759,29 @@
         <v>1584.5692</v>
       </c>
       <c r="G199" t="n">
+        <v>196.26</v>
+      </c>
+      <c r="H199" t="n">
         <v>195.8949999999999</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>196</v>
+      </c>
+      <c r="L199" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8805,27 @@
         <v>2.6</v>
       </c>
       <c r="G200" t="n">
+        <v>196.26</v>
+      </c>
+      <c r="H200" t="n">
         <v>195.8949999999999</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8849,27 @@
         <v>300</v>
       </c>
       <c r="G201" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="H201" t="n">
         <v>195.8649999999999</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8893,27 @@
         <v>1062.0062</v>
       </c>
       <c r="G202" t="n">
+        <v>196.0866666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>195.8483333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8937,27 @@
         <v>534.6099</v>
       </c>
       <c r="G203" t="n">
+        <v>196.0866666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>195.8566666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8981,27 @@
         <v>100</v>
       </c>
       <c r="G204" t="n">
+        <v>195.9866666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>195.8749999999999</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +9025,27 @@
         <v>983.6741</v>
       </c>
       <c r="G205" t="n">
+        <v>195.8866666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>195.9083333333332</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +9069,29 @@
         <v>62</v>
       </c>
       <c r="G206" t="n">
+        <v>195.8866666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>195.9516666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>196</v>
+      </c>
+      <c r="L206" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +9115,27 @@
         <v>16.3259</v>
       </c>
       <c r="G207" t="n">
+        <v>195.8866666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>195.9849999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +9159,29 @@
         <v>33.7543</v>
       </c>
       <c r="G208" t="n">
+        <v>195.9133333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>196.0149999999999</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>196</v>
+      </c>
+      <c r="L208" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +9205,29 @@
         <v>2737.5921</v>
       </c>
       <c r="G209" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="H209" t="n">
         <v>196.0599999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="L209" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +9251,27 @@
         <v>2.7</v>
       </c>
       <c r="G210" t="n">
+        <v>195.96</v>
+      </c>
+      <c r="H210" t="n">
         <v>196.1083333333332</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +9295,27 @@
         <v>10.5728</v>
       </c>
       <c r="G211" t="n">
+        <v>196.02</v>
+      </c>
+      <c r="H211" t="n">
         <v>196.1566666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +9339,27 @@
         <v>1200</v>
       </c>
       <c r="G212" t="n">
+        <v>196.02</v>
+      </c>
+      <c r="H212" t="n">
         <v>196.1983333333332</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +9383,29 @@
         <v>1057.5959</v>
       </c>
       <c r="G213" t="n">
+        <v>196.0733333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>196.2616666666665</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="L213" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +9429,27 @@
         <v>18771.9052</v>
       </c>
       <c r="G214" t="n">
+        <v>196.2333333333334</v>
+      </c>
+      <c r="H214" t="n">
         <v>196.3349999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +9473,27 @@
         <v>320.1894</v>
       </c>
       <c r="G215" t="n">
+        <v>196.4866666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>196.3999999999998</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +9517,27 @@
         <v>1133.763</v>
       </c>
       <c r="G216" t="n">
+        <v>196.8000000000001</v>
+      </c>
+      <c r="H216" t="n">
         <v>196.4649999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +9561,27 @@
         <v>221.1639</v>
       </c>
       <c r="G217" t="n">
+        <v>197.0666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>196.5299999999998</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +9605,27 @@
         <v>495.3769</v>
       </c>
       <c r="G218" t="n">
+        <v>197.3866666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>196.6116666666665</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +9649,437 @@
         <v>4808.5375</v>
       </c>
       <c r="G219" t="n">
+        <v>197.6533333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>196.6783333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="C220" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="D220" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>7657.3447</v>
+      </c>
+      <c r="G220" t="n">
+        <v>197.9800000000001</v>
+      </c>
+      <c r="H220" t="n">
+        <v>196.7583333333332</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="D221" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>609.4508</v>
+      </c>
+      <c r="G221" t="n">
+        <v>198.2733333333335</v>
+      </c>
+      <c r="H221" t="n">
+        <v>196.8549999999998</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="F222" t="n">
+        <v>8003.2884</v>
+      </c>
+      <c r="G222" t="n">
+        <v>198.7666666666668</v>
+      </c>
+      <c r="H222" t="n">
+        <v>196.9766666666665</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="D223" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="E223" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4</v>
+      </c>
+      <c r="G223" t="n">
+        <v>199.2733333333335</v>
+      </c>
+      <c r="H223" t="n">
+        <v>197.0983333333331</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>203.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>29.3693</v>
+      </c>
+      <c r="G224" t="n">
+        <v>199.7800000000001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>197.2083333333331</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1.028011681056374</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>203.3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>203.3</v>
+      </c>
+      <c r="E225" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>981.7186424</v>
+      </c>
+      <c r="G225" t="n">
+        <v>200.2066666666668</v>
+      </c>
+      <c r="H225" t="n">
+        <v>197.3166666666665</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7</v>
+      </c>
+      <c r="G226" t="n">
+        <v>200.4733333333334</v>
+      </c>
+      <c r="H226" t="n">
+        <v>197.4083333333331</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="C227" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1172.0171</v>
+      </c>
+      <c r="G227" t="n">
+        <v>200.9866666666668</v>
+      </c>
+      <c r="H227" t="n">
+        <v>197.5133333333332</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>201</v>
+      </c>
+      <c r="C228" t="n">
+        <v>200</v>
+      </c>
+      <c r="D228" t="n">
+        <v>201</v>
+      </c>
+      <c r="E228" t="n">
+        <v>200</v>
+      </c>
+      <c r="F228" t="n">
+        <v>5662.209</v>
+      </c>
+      <c r="G228" t="n">
+        <v>201.2000000000001</v>
+      </c>
+      <c r="H228" t="n">
+        <v>197.5899999999998</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>200</v>
+      </c>
+      <c r="C229" t="n">
+        <v>200</v>
+      </c>
+      <c r="D229" t="n">
+        <v>200</v>
+      </c>
+      <c r="E229" t="n">
+        <v>200</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3377.3789</v>
+      </c>
+      <c r="G229" t="n">
+        <v>201.3666666666668</v>
+      </c>
+      <c r="H229" t="n">
+        <v>197.6399999999998</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15306.6118</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15644.8315</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17323.0076</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-16984.8463</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19319.0076</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-18672.5304</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18676.5304</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18673.5304</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18677.5304</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-18673.5304</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-18658.0426</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-18077.5581</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-18092.0319</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-18092.0319</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-16231.6539</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-16221.6539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-16221.6539</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5912.594699999996</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5912.594699999996</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5907.594699999996</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6236.089899999996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6226.089899999996</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6408.340199999996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9964.506499999996</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-12027.5802</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-12292.756</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-12995.148</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-12058.2217</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-12380.2851</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-12380.2851</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-27236.9535</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-26420.9795</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-26549.669600991</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26386.549600991</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-26386.549600991</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-27386.549600991</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-31449.483800991</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-31426.156900991</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-31402.830000991</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32639.796000991</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-32380.447700991</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-31884.223900991</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-26395.861700991</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-27426.616300991</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-30289.044500991</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-35601.482400991</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-35598.482400991</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-35883.473400991</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-35860.146500991</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-36054.60400099099</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-36079.27040099099</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-36024.23790099099</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-36127.52270099099</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-46714.71710099099</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-44302.58750099099</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-46240.013400991</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-45170.569300991</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-45127.635700991</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-45127.635700991</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-44994.266100991</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-46686.227400991</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-46725.430500991</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-45978.257100991</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-48797.036400991</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-48797.036400991</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-67396.940800991</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-68181.079300991</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-68187.611600991</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-68187.611600991</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-74187.611600991</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-71816.58620099101</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -7183,10 +7183,14 @@
         <v>-147414.425260991</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>194</v>
+      </c>
+      <c r="J206" t="n">
+        <v>194</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7218,9 +7222,17 @@
       <c r="H207" t="n">
         <v>1</v>
       </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>194</v>
+      </c>
+      <c r="J207" t="n">
+        <v>194</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>194</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>194</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7339,19 @@
         <v>-186164.814760991</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>194</v>
+      </c>
+      <c r="J210" t="n">
+        <v>194</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>194</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7419,19 @@
         <v>-185647.503160991</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>193</v>
+      </c>
+      <c r="J212" t="n">
+        <v>194</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7463,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>194</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7499,19 @@
         <v>-185644.503160991</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="J214" t="n">
+        <v>194</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7540,19 @@
         <v>-185644.503160991</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="J215" t="n">
+        <v>194</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7581,19 @@
         <v>-185644.503160991</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="J216" t="n">
+        <v>194</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7622,19 @@
         <v>-184273.319460991</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="J217" t="n">
+        <v>194</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7663,19 @@
         <v>-184239.807460991</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>196</v>
+      </c>
+      <c r="J218" t="n">
+        <v>194</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7704,19 @@
         <v>-184239.807460991</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>194</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7745,19 @@
         <v>-184239.807460991</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>194</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,15 +7786,15 @@
         <v>-184239.807460991</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>194</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7720,7 +7828,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>194</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,7 +7867,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>194</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,7 +7906,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>194</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7831,7 +7945,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>194</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,10 +7981,14 @@
         <v>-187812.736460991</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="J226" t="n">
+        <v>194</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7902,10 +8022,14 @@
         <v>-187808.536460991</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>194</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,12 +8063,14 @@
         <v>-187808.536460991</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>197</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>194</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,12 +8104,14 @@
         <v>-187808.536460991</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>197</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>194</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,10 +8145,14 @@
         <v>-187805.936460991</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>197</v>
+      </c>
+      <c r="J230" t="n">
+        <v>194</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,10 +8186,14 @@
         <v>-185654.123660991</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>194</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,10 +8227,14 @@
         <v>-187722.646760991</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="J232" t="n">
+        <v>194</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,7 +8271,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>194</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,7 +8310,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>194</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,7 +8349,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>194</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,7 +8388,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>194</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,7 +8427,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>194</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,7 +8466,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>194</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,7 +8505,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>194</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,7 +8544,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>194</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,7 +8583,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>194</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,7 +8622,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>194</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,12 +8658,14 @@
         <v>-202996.570760991</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>196</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>194</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,12 +8699,14 @@
         <v>-200471.241060991</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>196</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>194</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8576,12 +8740,14 @@
         <v>-202239.909060991</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>197.5</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>194</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8615,12 +8781,12 @@
         <v>-202239.909060991</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>196</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>194</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8654,10 +8820,14 @@
         <v>-199717.421760991</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>196</v>
+      </c>
+      <c r="J247" t="n">
+        <v>194</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,7 +8864,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>194</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,7 +8903,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>194</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8768,7 +8942,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>194</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,7 +8981,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>194</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8839,12 +9017,12 @@
         <v>-210439.6542609909</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>194</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,7 +9059,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>194</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,7 +9098,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>194</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,12 +9134,12 @@
         <v>-210543.9757609909</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>196</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>194</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,12 +9173,12 @@
         <v>-204520.2543609909</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>194</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,10 +9212,14 @@
         <v>-206104.8235609909</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>196</v>
+      </c>
+      <c r="J257" t="n">
+        <v>194</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,12 +9253,12 @@
         <v>-206102.2235609909</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>194</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,7 +9295,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>194</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,12 +9331,12 @@
         <v>-205340.2173609909</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>194</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,7 +9373,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>194</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9219,12 +9409,12 @@
         <v>-204805.6074609909</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>196</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>194</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,7 +9451,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>194</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9295,10 +9487,14 @@
         <v>-204743.6074609909</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>196</v>
+      </c>
+      <c r="J264" t="n">
+        <v>194</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9332,12 +9528,14 @@
         <v>-204759.9333609909</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>197.5</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>194</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9371,12 +9569,14 @@
         <v>-204793.6876609909</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>196</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>194</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,12 +9610,14 @@
         <v>-204793.6876609909</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>195.8</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>194</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,12 +9651,14 @@
         <v>-204790.9876609909</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>195.8</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>194</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,12 +9692,14 @@
         <v>-204790.9876609909</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>196.9</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>194</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,12 +9733,14 @@
         <v>-205990.9876609909</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>196.9</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>194</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9566,12 +9774,14 @@
         <v>-204933.3917609909</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>195.4</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>194</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,12 +9815,14 @@
         <v>-186161.4865609909</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>196.8</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>194</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,7 +9859,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>194</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9684,7 +9898,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>194</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,12 +9934,12 @@
         <v>-185841.2971609909</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>194</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,12 +9973,12 @@
         <v>-185345.9202609909</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>194</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9799,7 +10015,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>194</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9836,7 +10054,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>194</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,7 +10093,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>194</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,7 +10132,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>194</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,7 +10171,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>194</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,7 +10210,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>194</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10021,7 +10249,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>194</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10058,7 +10288,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>194</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10095,7 +10327,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>194</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10132,7 +10366,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>194</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,7 +10405,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>194</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,6 +10419,6 @@
       <c r="M287" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15306.6118</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15644.8315</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-17323.0076</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-16984.8463</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-19319.0076</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-18672.5304</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18676.5304</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18673.5304</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18677.5304</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-18673.5304</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-18658.0426</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-18077.5581</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-18092.0319</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-18092.0319</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-16231.6539</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-16221.6539</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-16221.6539</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5912.594699999996</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5912.594699999996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5907.594699999996</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6236.089899999996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6226.089899999996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6408.340199999996</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9964.506499999996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-12027.5802</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-12292.756</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-12995.148</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-12058.2217</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-12380.2851</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-12380.2851</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-26420.9795</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-26549.669600991</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-26386.549600991</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-26386.549600991</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-27386.549600991</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-31449.483800991</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-31426.156900991</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-32639.796000991</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-32380.447700991</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-31884.223900991</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-26395.861700991</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-35883.473400991</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-35860.146500991</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-36054.60400099099</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-36079.27040099099</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-36024.23790099099</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-36127.52270099099</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-46714.71710099099</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-44302.58750099099</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-46240.013400991</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-45170.569300991</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-45127.635700991</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-45127.635700991</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-44994.266100991</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-46686.227400991</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-46725.430500991</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-45978.257100991</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-48797.036400991</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-48797.036400991</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-67396.940800991</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-68187.611600991</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-68187.611600991</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-74187.611600991</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-71816.58620099101</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-113793.359460991</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-115175.426160991</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-115118.367060991</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-118352.371860991</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-127302.246760991</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-127799.129260991</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-127533.379260991</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-127600.379260991</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128593.742360991</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128658.042360991</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-118910.209060991</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7183,14 +7183,10 @@
         <v>-147414.425260991</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>194</v>
-      </c>
-      <c r="J206" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7220,2573 +7216,2155 @@
         <v>-164115.797160991</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>194</v>
       </c>
-      <c r="J207" t="n">
+      <c r="C208" t="n">
         <v>194</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="D208" t="n">
+        <v>194</v>
+      </c>
+      <c r="E208" t="n">
+        <v>194</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.8005</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-164112.996660991</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>194</v>
+      </c>
+      <c r="C209" t="n">
+        <v>194</v>
+      </c>
+      <c r="D209" t="n">
+        <v>194</v>
+      </c>
+      <c r="E209" t="n">
+        <v>194</v>
+      </c>
+      <c r="F209" t="n">
+        <v>607.6832000000001</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-164112.996660991</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="D210" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22051.8181</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-186164.814760991</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>193</v>
+      </c>
+      <c r="C211" t="n">
+        <v>193</v>
+      </c>
+      <c r="D211" t="n">
+        <v>193</v>
+      </c>
+      <c r="E211" t="n">
+        <v>193</v>
+      </c>
+      <c r="F211" t="n">
+        <v>23.7863</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-186141.028460991</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>493.5253</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-185647.503160991</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-185644.503160991</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2705.0102</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-185644.503160991</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>246.025</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-185644.503160991</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C216" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="D216" t="n">
+        <v>196</v>
+      </c>
+      <c r="E216" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F216" t="n">
+        <v>164.6226</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-185644.503160991</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C217" t="n">
+        <v>196</v>
+      </c>
+      <c r="D217" t="n">
+        <v>196</v>
+      </c>
+      <c r="E217" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1371.1837</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-184273.319460991</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>33.512</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-184239.807460991</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2788.3711</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-184239.807460991</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-184239.807460991</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>708.2353000000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-184239.807460991</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>600</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-183639.807460991</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="E223" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>123.7863</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-183639.807460991</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C224" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="E224" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3991.349</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-187631.156460991</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="D225" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-187628.556460991</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="E226" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>184.18</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-187812.736460991</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="C227" t="n">
+        <v>197</v>
+      </c>
+      <c r="D227" t="n">
+        <v>197</v>
+      </c>
+      <c r="E227" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-187808.536460991</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>197</v>
+      </c>
+      <c r="C228" t="n">
+        <v>197</v>
+      </c>
+      <c r="D228" t="n">
+        <v>197</v>
+      </c>
+      <c r="E228" t="n">
+        <v>197</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-187808.536460991</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>197</v>
+      </c>
+      <c r="C229" t="n">
+        <v>197</v>
+      </c>
+      <c r="D229" t="n">
+        <v>197</v>
+      </c>
+      <c r="E229" t="n">
+        <v>197</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3073.313</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-187808.536460991</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-187805.936460991</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2151.8128</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-185654.123660991</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>197</v>
+      </c>
+      <c r="C232" t="n">
+        <v>197</v>
+      </c>
+      <c r="D232" t="n">
+        <v>197</v>
+      </c>
+      <c r="E232" t="n">
+        <v>197</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2068.5231</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-187722.646760991</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>197</v>
+      </c>
+      <c r="C233" t="n">
+        <v>197</v>
+      </c>
+      <c r="D233" t="n">
+        <v>197</v>
+      </c>
+      <c r="E233" t="n">
+        <v>197</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2849.1108</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-187722.646760991</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>197</v>
+      </c>
+      <c r="C234" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>197</v>
+      </c>
+      <c r="E234" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F234" t="n">
+        <v>11073.4517</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-198796.098460991</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-198792.098460991</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>196</v>
+      </c>
+      <c r="C236" t="n">
+        <v>196</v>
+      </c>
+      <c r="D236" t="n">
+        <v>196</v>
+      </c>
+      <c r="E236" t="n">
+        <v>196</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3408.4723</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-202200.570760991</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C237" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>4</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-202196.570760991</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E238" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-202196.570760991</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>196</v>
+      </c>
+      <c r="C239" t="n">
+        <v>196</v>
+      </c>
+      <c r="D239" t="n">
+        <v>196</v>
+      </c>
+      <c r="E239" t="n">
+        <v>196</v>
+      </c>
+      <c r="F239" t="n">
+        <v>800</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-202996.570760991</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>196</v>
+      </c>
+      <c r="C240" t="n">
+        <v>196</v>
+      </c>
+      <c r="D240" t="n">
+        <v>196</v>
+      </c>
+      <c r="E240" t="n">
+        <v>196</v>
+      </c>
+      <c r="F240" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-202996.570760991</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>196</v>
+      </c>
+      <c r="C241" t="n">
+        <v>196</v>
+      </c>
+      <c r="D241" t="n">
+        <v>196</v>
+      </c>
+      <c r="E241" t="n">
+        <v>196</v>
+      </c>
+      <c r="F241" t="n">
+        <v>767.6561</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-202996.570760991</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>196</v>
+      </c>
+      <c r="C242" t="n">
+        <v>196</v>
+      </c>
+      <c r="D242" t="n">
+        <v>196</v>
+      </c>
+      <c r="E242" t="n">
+        <v>196</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4300</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-202996.570760991</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>196</v>
+      </c>
+      <c r="C243" t="n">
+        <v>196</v>
+      </c>
+      <c r="D243" t="n">
+        <v>196</v>
+      </c>
+      <c r="E243" t="n">
+        <v>196</v>
+      </c>
+      <c r="F243" t="n">
+        <v>330.3015</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-202996.570760991</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C244" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D244" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E244" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2525.3297</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-200471.241060991</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>196</v>
+      </c>
+      <c r="D245" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>196</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1768.668</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-202239.909060991</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>196</v>
+      </c>
+      <c r="C246" t="n">
+        <v>196</v>
+      </c>
+      <c r="D246" t="n">
+        <v>196</v>
+      </c>
+      <c r="E246" t="n">
+        <v>196</v>
+      </c>
+      <c r="F246" t="n">
+        <v>852.1872</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-202239.909060991</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>196</v>
+      </c>
+      <c r="C247" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>196</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2522.4873</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-199717.421760991</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="F248" t="n">
+        <v>200</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-199717.421760991</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C249" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D249" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E249" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>24</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-199717.421760991</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>196</v>
+      </c>
+      <c r="D250" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E250" t="n">
+        <v>196</v>
+      </c>
+      <c r="F250" t="n">
+        <v>10396.5084</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-210113.9301609909</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C251" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D251" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="E251" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F251" t="n">
+        <v>355.9098</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-210469.8399609909</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C252" t="n">
+        <v>196</v>
+      </c>
+      <c r="D252" t="n">
+        <v>196</v>
+      </c>
+      <c r="E252" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F252" t="n">
+        <v>30.1857</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-210439.6542609909</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>196</v>
+      </c>
+      <c r="C253" t="n">
+        <v>196</v>
+      </c>
+      <c r="D253" t="n">
+        <v>196</v>
+      </c>
+      <c r="E253" t="n">
+        <v>196</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-210439.6542609909</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>196</v>
+      </c>
+      <c r="D254" t="n">
+        <v>196</v>
+      </c>
+      <c r="E254" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="F254" t="n">
+        <v>378.6705</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-210439.6542609909</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C255" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="E255" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>104.3215</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-210543.9757609909</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>196</v>
+      </c>
+      <c r="C256" t="n">
+        <v>196</v>
+      </c>
+      <c r="D256" t="n">
+        <v>196</v>
+      </c>
+      <c r="E256" t="n">
+        <v>196</v>
+      </c>
+      <c r="F256" t="n">
+        <v>6023.7214</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-204520.2543609909</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>196</v>
+      </c>
+      <c r="C257" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>196</v>
+      </c>
+      <c r="E257" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1584.5692</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-206104.8235609909</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>196</v>
+      </c>
+      <c r="C258" t="n">
+        <v>196</v>
+      </c>
+      <c r="D258" t="n">
+        <v>196</v>
+      </c>
+      <c r="E258" t="n">
+        <v>196</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-206102.2235609909</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>300</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-206402.2235609909</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="C260" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="D260" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="E260" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1062.0062</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-205340.2173609909</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="C261" t="n">
+        <v>196</v>
+      </c>
+      <c r="D261" t="n">
+        <v>196</v>
+      </c>
+      <c r="E261" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="F261" t="n">
+        <v>534.6099</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-204805.6074609909</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>196</v>
+      </c>
+      <c r="C262" t="n">
+        <v>196</v>
+      </c>
+      <c r="D262" t="n">
+        <v>196</v>
+      </c>
+      <c r="E262" t="n">
+        <v>196</v>
+      </c>
+      <c r="F262" t="n">
+        <v>100</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-204805.6074609909</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>196</v>
+      </c>
+      <c r="C263" t="n">
+        <v>196</v>
+      </c>
+      <c r="D263" t="n">
+        <v>196</v>
+      </c>
+      <c r="E263" t="n">
+        <v>196</v>
+      </c>
+      <c r="F263" t="n">
+        <v>983.6741</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-204805.6074609909</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="C264" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>62</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-204743.6074609909</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>196</v>
+      </c>
+      <c r="C265" t="n">
+        <v>196</v>
+      </c>
+      <c r="D265" t="n">
+        <v>196</v>
+      </c>
+      <c r="E265" t="n">
+        <v>196</v>
+      </c>
+      <c r="F265" t="n">
+        <v>16.3259</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-204759.9333609909</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="C266" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="D266" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="E266" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="F266" t="n">
+        <v>33.7543</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-204793.6876609909</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="C267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="E267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2737.5921</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-204793.6876609909</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="C268" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="E268" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-204790.9876609909</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="J268" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="C269" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="F269" t="n">
+        <v>10.5728</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-204790.9876609909</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="J269" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="D270" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="E270" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-205990.9876609909</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="J270" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="C271" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="D271" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="E271" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1057.5959</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-204933.3917609909</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="J271" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>194</v>
-      </c>
-      <c r="C208" t="n">
-        <v>194</v>
-      </c>
-      <c r="D208" t="n">
-        <v>194</v>
-      </c>
-      <c r="E208" t="n">
-        <v>194</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2.8005</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-164112.996660991</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>194</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>194</v>
-      </c>
-      <c r="C209" t="n">
-        <v>194</v>
-      </c>
-      <c r="D209" t="n">
-        <v>194</v>
-      </c>
-      <c r="E209" t="n">
-        <v>194</v>
-      </c>
-      <c r="F209" t="n">
-        <v>607.6832000000001</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-164112.996660991</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>194</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="D210" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="F210" t="n">
-        <v>22051.8181</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-186164.814760991</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>194</v>
-      </c>
-      <c r="J210" t="n">
-        <v>194</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>193</v>
-      </c>
-      <c r="C211" t="n">
-        <v>193</v>
-      </c>
-      <c r="D211" t="n">
-        <v>193</v>
-      </c>
-      <c r="E211" t="n">
-        <v>193</v>
-      </c>
-      <c r="F211" t="n">
-        <v>23.7863</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-186141.028460991</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>194</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>493.5253</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-185647.503160991</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>193</v>
-      </c>
-      <c r="J212" t="n">
-        <v>194</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D213" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="E213" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F213" t="n">
-        <v>3</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>194</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C214" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D214" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="E214" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2705.0102</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J214" t="n">
-        <v>194</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C215" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="E215" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F215" t="n">
-        <v>246.025</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J215" t="n">
-        <v>194</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C216" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D216" t="n">
-        <v>196</v>
-      </c>
-      <c r="E216" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F216" t="n">
-        <v>164.6226</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J216" t="n">
-        <v>194</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C217" t="n">
-        <v>196</v>
-      </c>
-      <c r="D217" t="n">
-        <v>196</v>
-      </c>
-      <c r="E217" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1371.1837</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-184273.319460991</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J217" t="n">
-        <v>194</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C218" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D218" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E218" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F218" t="n">
-        <v>33.512</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>196</v>
-      </c>
-      <c r="J218" t="n">
-        <v>194</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2788.3711</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>194</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E220" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>194</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D221" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F221" t="n">
-        <v>708.2353000000001</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>194</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="D222" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="E222" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>600</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-183639.807460991</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>194</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C223" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="D223" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="E223" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F223" t="n">
-        <v>123.7863</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-183639.807460991</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>194</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C224" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D224" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="E224" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3991.349</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-187631.156460991</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>194</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="C225" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="D225" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="E225" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-187628.556460991</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>194</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C226" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D226" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="E226" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>184.18</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-187812.736460991</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="J226" t="n">
-        <v>194</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="C227" t="n">
-        <v>197</v>
-      </c>
-      <c r="D227" t="n">
-        <v>197</v>
-      </c>
-      <c r="E227" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="F227" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J227" t="n">
-        <v>194</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>197</v>
-      </c>
-      <c r="C228" t="n">
-        <v>197</v>
-      </c>
-      <c r="D228" t="n">
-        <v>197</v>
-      </c>
-      <c r="E228" t="n">
-        <v>197</v>
-      </c>
-      <c r="F228" t="n">
-        <v>3</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>197</v>
-      </c>
-      <c r="J228" t="n">
-        <v>194</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>197</v>
-      </c>
-      <c r="C229" t="n">
-        <v>197</v>
-      </c>
-      <c r="D229" t="n">
-        <v>197</v>
-      </c>
-      <c r="E229" t="n">
-        <v>197</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3073.313</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>197</v>
-      </c>
-      <c r="J229" t="n">
-        <v>194</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-187805.936460991</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>197</v>
-      </c>
-      <c r="J230" t="n">
-        <v>194</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2151.8128</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-185654.123660991</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="J231" t="n">
-        <v>194</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>197</v>
-      </c>
-      <c r="C232" t="n">
-        <v>197</v>
-      </c>
-      <c r="D232" t="n">
-        <v>197</v>
-      </c>
-      <c r="E232" t="n">
-        <v>197</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2068.5231</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-187722.646760991</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>194</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>197</v>
-      </c>
-      <c r="C233" t="n">
-        <v>197</v>
-      </c>
-      <c r="D233" t="n">
-        <v>197</v>
-      </c>
-      <c r="E233" t="n">
-        <v>197</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2849.1108</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-187722.646760991</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>194</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>197</v>
-      </c>
-      <c r="C234" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D234" t="n">
-        <v>197</v>
-      </c>
-      <c r="E234" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F234" t="n">
-        <v>11073.4517</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-198796.098460991</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>194</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C235" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D235" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E235" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F235" t="n">
-        <v>4</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-198792.098460991</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>194</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>196</v>
-      </c>
-      <c r="C236" t="n">
-        <v>196</v>
-      </c>
-      <c r="D236" t="n">
-        <v>196</v>
-      </c>
-      <c r="E236" t="n">
-        <v>196</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3408.4723</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-202200.570760991</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>194</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C237" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D237" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F237" t="n">
-        <v>4</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-202196.570760991</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>194</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C238" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D238" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E238" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F238" t="n">
-        <v>4</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-202196.570760991</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>194</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>196</v>
-      </c>
-      <c r="C239" t="n">
-        <v>196</v>
-      </c>
-      <c r="D239" t="n">
-        <v>196</v>
-      </c>
-      <c r="E239" t="n">
-        <v>196</v>
-      </c>
-      <c r="F239" t="n">
-        <v>800</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>194</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>196</v>
-      </c>
-      <c r="C240" t="n">
-        <v>196</v>
-      </c>
-      <c r="D240" t="n">
-        <v>196</v>
-      </c>
-      <c r="E240" t="n">
-        <v>196</v>
-      </c>
-      <c r="F240" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>194</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>196</v>
-      </c>
-      <c r="C241" t="n">
-        <v>196</v>
-      </c>
-      <c r="D241" t="n">
-        <v>196</v>
-      </c>
-      <c r="E241" t="n">
-        <v>196</v>
-      </c>
-      <c r="F241" t="n">
-        <v>767.6561</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>194</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>196</v>
-      </c>
-      <c r="C242" t="n">
-        <v>196</v>
-      </c>
-      <c r="D242" t="n">
-        <v>196</v>
-      </c>
-      <c r="E242" t="n">
-        <v>196</v>
-      </c>
-      <c r="F242" t="n">
-        <v>4300</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>194</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>196</v>
-      </c>
-      <c r="C243" t="n">
-        <v>196</v>
-      </c>
-      <c r="D243" t="n">
-        <v>196</v>
-      </c>
-      <c r="E243" t="n">
-        <v>196</v>
-      </c>
-      <c r="F243" t="n">
-        <v>330.3015</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>196</v>
-      </c>
-      <c r="J243" t="n">
-        <v>194</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C244" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D244" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E244" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2525.3297</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-200471.241060991</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>196</v>
-      </c>
-      <c r="J244" t="n">
-        <v>194</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C245" t="n">
-        <v>196</v>
-      </c>
-      <c r="D245" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E245" t="n">
-        <v>196</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1768.668</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-202239.909060991</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J245" t="n">
-        <v>194</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>196</v>
-      </c>
-      <c r="C246" t="n">
-        <v>196</v>
-      </c>
-      <c r="D246" t="n">
-        <v>196</v>
-      </c>
-      <c r="E246" t="n">
-        <v>196</v>
-      </c>
-      <c r="F246" t="n">
-        <v>852.1872</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-202239.909060991</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>194</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>196</v>
-      </c>
-      <c r="C247" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D247" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E247" t="n">
-        <v>196</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2522.4873</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>196</v>
-      </c>
-      <c r="J247" t="n">
-        <v>194</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="C248" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E248" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="F248" t="n">
-        <v>200</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>194</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C249" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D249" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E249" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="F249" t="n">
-        <v>24</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>194</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C250" t="n">
-        <v>196</v>
-      </c>
-      <c r="D250" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E250" t="n">
-        <v>196</v>
-      </c>
-      <c r="F250" t="n">
-        <v>10396.5084</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-210113.9301609909</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>194</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C251" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D251" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="E251" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F251" t="n">
-        <v>355.9098</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-210469.8399609909</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>194</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C252" t="n">
-        <v>196</v>
-      </c>
-      <c r="D252" t="n">
-        <v>196</v>
-      </c>
-      <c r="E252" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F252" t="n">
-        <v>30.1857</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>194</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>196</v>
-      </c>
-      <c r="C253" t="n">
-        <v>196</v>
-      </c>
-      <c r="D253" t="n">
-        <v>196</v>
-      </c>
-      <c r="E253" t="n">
-        <v>196</v>
-      </c>
-      <c r="F253" t="n">
-        <v>3</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>194</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="C254" t="n">
-        <v>196</v>
-      </c>
-      <c r="D254" t="n">
-        <v>196</v>
-      </c>
-      <c r="E254" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="F254" t="n">
-        <v>378.6705</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>194</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C255" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D255" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="E255" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F255" t="n">
-        <v>104.3215</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-210543.9757609909</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>194</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>196</v>
-      </c>
-      <c r="C256" t="n">
-        <v>196</v>
-      </c>
-      <c r="D256" t="n">
-        <v>196</v>
-      </c>
-      <c r="E256" t="n">
-        <v>196</v>
-      </c>
-      <c r="F256" t="n">
-        <v>6023.7214</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-204520.2543609909</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>194</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>196</v>
-      </c>
-      <c r="C257" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>196</v>
-      </c>
-      <c r="E257" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1584.5692</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-206104.8235609909</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>196</v>
-      </c>
-      <c r="J257" t="n">
-        <v>194</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>196</v>
-      </c>
-      <c r="C258" t="n">
-        <v>196</v>
-      </c>
-      <c r="D258" t="n">
-        <v>196</v>
-      </c>
-      <c r="E258" t="n">
-        <v>196</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-206102.2235609909</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>194</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="C259" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="E259" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>300</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-206402.2235609909</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>194</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="C260" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="D260" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="E260" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1062.0062</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-205340.2173609909</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>194</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="C261" t="n">
-        <v>196</v>
-      </c>
-      <c r="D261" t="n">
-        <v>196</v>
-      </c>
-      <c r="E261" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="F261" t="n">
-        <v>534.6099</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>194</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>196</v>
-      </c>
-      <c r="C262" t="n">
-        <v>196</v>
-      </c>
-      <c r="D262" t="n">
-        <v>196</v>
-      </c>
-      <c r="E262" t="n">
-        <v>196</v>
-      </c>
-      <c r="F262" t="n">
-        <v>100</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>194</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>196</v>
-      </c>
-      <c r="C263" t="n">
-        <v>196</v>
-      </c>
-      <c r="D263" t="n">
-        <v>196</v>
-      </c>
-      <c r="E263" t="n">
-        <v>196</v>
-      </c>
-      <c r="F263" t="n">
-        <v>983.6741</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>194</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="C264" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="D264" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="E264" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="F264" t="n">
-        <v>62</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-204743.6074609909</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>196</v>
-      </c>
-      <c r="J264" t="n">
-        <v>194</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>196</v>
-      </c>
-      <c r="C265" t="n">
-        <v>196</v>
-      </c>
-      <c r="D265" t="n">
-        <v>196</v>
-      </c>
-      <c r="E265" t="n">
-        <v>196</v>
-      </c>
-      <c r="F265" t="n">
-        <v>16.3259</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-204759.9333609909</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J265" t="n">
-        <v>194</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="C266" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="D266" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="E266" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="F266" t="n">
-        <v>33.7543</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-204793.6876609909</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>196</v>
-      </c>
-      <c r="J266" t="n">
-        <v>194</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="C267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="D267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="E267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2737.5921</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-204793.6876609909</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="J267" t="n">
-        <v>194</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="C268" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="D268" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="E268" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-204790.9876609909</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="J268" t="n">
-        <v>194</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="C269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="D269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="E269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="F269" t="n">
-        <v>10.5728</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-204790.9876609909</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="J269" t="n">
-        <v>194</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="C270" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="D270" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="E270" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-205990.9876609909</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="J270" t="n">
-        <v>194</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="C271" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="D271" t="n">
-        <v>196.8</v>
-      </c>
-      <c r="E271" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1057.5959</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-204933.3917609909</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J271" t="n">
-        <v>194</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9821,7 +9399,7 @@
         <v>196.8</v>
       </c>
       <c r="J272" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9856,11 +9434,11 @@
         <v>-185841.2971609909</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9899,7 +9477,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9938,7 +9516,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9973,11 +9551,11 @@
         <v>-185345.9202609909</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10012,11 +9590,11 @@
         <v>-190154.4577609909</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10051,11 +9629,11 @@
         <v>-182497.1130609909</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10090,11 +9668,11 @@
         <v>-181887.6622609909</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10129,11 +9707,11 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10168,11 +9746,11 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10207,19 +9785,19 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>194</v>
+        <v>196.9</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1</v>
+        <v>1.028011681056374</v>
       </c>
       <c r="M282" t="inlineStr"/>
     </row>
@@ -10246,17 +9824,11 @@
         <v>-174866.0925033909</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>194</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10288,14 +9860,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>194</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10324,17 +9890,11 @@
         <v>-173701.0754033909</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>194</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10366,14 +9926,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>194</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10405,20 +9959,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>194</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
       <c r="M287" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -1639,7 +1639,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6226.089899999996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6408.340199999996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9964.506499999996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-27236.9535</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-31402.830000991</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-26395.861700991</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-26469.549900991</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-27426.616300991</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-30024.345500991</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-30316.672400991</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-30289.044500991</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-35601.482400991</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-35598.482400991</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-35641.416000991</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-35883.473400991</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-68181.079300991</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-113793.359460991</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-115175.426160991</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-115118.367060991</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-118352.371860991</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-127302.246760991</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-127799.129260991</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-127533.379260991</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-127600.379260991</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-128593.742360991</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128658.042360991</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-118910.209060991</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -8437,10 +8437,14 @@
         <v>-200471.241060991</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>196</v>
+      </c>
+      <c r="J244" t="n">
+        <v>196</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8473,8 +8477,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>196</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8516,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>196</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8555,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>196</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8594,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>196</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8633,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>196</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8672,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>196</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8711,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>196</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8750,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>196</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8789,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>196</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8828,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>196</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8867,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>196</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8903,19 @@
         <v>-204520.2543609909</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="J256" t="n">
+        <v>196</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8944,19 @@
         <v>-206104.8235609909</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>196</v>
+      </c>
+      <c r="J257" t="n">
+        <v>196</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +8988,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>196</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9027,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>196</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>196</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9105,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>196</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9144,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>196</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9183,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>196</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9222,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>196</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9258,19 @@
         <v>-204759.9333609909</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="J265" t="n">
+        <v>196</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9299,19 @@
         <v>-204793.6876609909</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>196</v>
+      </c>
+      <c r="J266" t="n">
+        <v>196</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9202,9 +9346,13 @@
         <v>195.8</v>
       </c>
       <c r="J267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +9387,11 @@
         <v>195.8</v>
       </c>
       <c r="J268" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9280,11 +9428,11 @@
         <v>196.9</v>
       </c>
       <c r="J269" t="n">
-        <v>195.8</v>
+        <v>196</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -9321,9 +9469,13 @@
         <v>196.9</v>
       </c>
       <c r="J270" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9358,11 +9510,11 @@
         <v>195.4</v>
       </c>
       <c r="J271" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9393,13 +9545,11 @@
         <v>-186161.4865609909</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>196.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9434,11 +9584,11 @@
         <v>-185841.2971609909</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9477,7 +9627,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9516,7 +9666,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9551,11 +9701,11 @@
         <v>-185345.9202609909</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9590,11 +9740,11 @@
         <v>-190154.4577609909</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9629,11 +9779,11 @@
         <v>-182497.1130609909</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9668,11 +9818,11 @@
         <v>-181887.6622609909</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9707,11 +9857,11 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9746,11 +9896,11 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9785,19 +9935,19 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>196.9</v>
+        <v>196</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.028011681056374</v>
+        <v>1</v>
       </c>
       <c r="M282" t="inlineStr"/>
     </row>
@@ -9824,11 +9974,17 @@
         <v>-174866.0925033909</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>196</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>196</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9890,11 +10052,17 @@
         <v>-173701.0754033909</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>196</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9926,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>196</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +10133,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>196</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest DAD.xlsx
+++ b/BackTest/2020-01-14 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M287"/>
+  <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>-15306.6118</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>338.2197</v>
       </c>
       <c r="G3" t="n">
-        <v>-15644.8315</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1678.1761</v>
       </c>
       <c r="G4" t="n">
-        <v>-17323.0076</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>338.1613</v>
       </c>
       <c r="G5" t="n">
-        <v>-16984.8463</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2334.1613</v>
       </c>
       <c r="G6" t="n">
-        <v>-19319.0076</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>646.4772</v>
       </c>
       <c r="G7" t="n">
-        <v>-18672.5304</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>-18676.5304</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-18673.5304</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>-18677.5304</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>-18673.5304</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>15.4878</v>
       </c>
       <c r="G12" t="n">
-        <v>-18658.0426</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>580.4845</v>
       </c>
       <c r="G13" t="n">
-        <v>-18077.5581</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14.4738</v>
       </c>
       <c r="G14" t="n">
-        <v>-18092.0319</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-18092.0319</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1860.378</v>
       </c>
       <c r="G16" t="n">
-        <v>-16231.6539</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-16221.6539</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>-16221.6539</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>55.6566</v>
       </c>
       <c r="G19" t="n">
-        <v>-16221.6539</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>615</v>
       </c>
       <c r="G20" t="n">
-        <v>-16836.6539</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>-16836.6539</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>-16833.6539</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>499.7978</v>
       </c>
       <c r="G23" t="n">
-        <v>-17333.4517</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>-17330.4517</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>52.2973</v>
       </c>
       <c r="G25" t="n">
-        <v>-17330.4517</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2469.0748</v>
       </c>
       <c r="G26" t="n">
-        <v>-14861.3769</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>6385.8824</v>
       </c>
       <c r="G27" t="n">
-        <v>-8475.494499999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2431.7582</v>
       </c>
       <c r="G28" t="n">
-        <v>-6043.736299999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>163.12</v>
       </c>
       <c r="G29" t="n">
-        <v>-6206.856299999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1054.3884</v>
       </c>
       <c r="G30" t="n">
-        <v>-6206.856299999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>950</v>
       </c>
       <c r="G31" t="n">
-        <v>-6206.856299999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>32.8765</v>
       </c>
       <c r="G32" t="n">
-        <v>-6206.856299999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>355.1155</v>
       </c>
       <c r="G33" t="n">
-        <v>-6561.971799999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>114.3448</v>
       </c>
       <c r="G34" t="n">
-        <v>-6676.316599999996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>763.7219</v>
       </c>
       <c r="G35" t="n">
-        <v>-5912.594699999996</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>815.8440000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-5912.594699999996</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>-5907.594699999996</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>628.4952</v>
       </c>
       <c r="G38" t="n">
-        <v>-6536.089899999996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1001.3407</v>
       </c>
       <c r="G39" t="n">
-        <v>-6536.089899999996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>300</v>
       </c>
       <c r="G40" t="n">
-        <v>-6236.089899999996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-6226.089899999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>182.2503</v>
       </c>
       <c r="G42" t="n">
-        <v>-6408.340199999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3556.1663</v>
       </c>
       <c r="G43" t="n">
-        <v>-9964.506499999996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2063.0737</v>
       </c>
       <c r="G44" t="n">
-        <v>-12027.5802</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>265.1758</v>
       </c>
       <c r="G45" t="n">
-        <v>-12292.756</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>702.3920000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>-12995.148</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>936.9263</v>
       </c>
       <c r="G47" t="n">
-        <v>-12058.2217</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>322.0634</v>
       </c>
       <c r="G48" t="n">
-        <v>-12380.2851</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>-12380.2851</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>14012</v>
       </c>
       <c r="G50" t="n">
-        <v>-26392.2851</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1453</v>
       </c>
       <c r="G51" t="n">
-        <v>-26392.2851</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>844.6684</v>
       </c>
       <c r="G52" t="n">
-        <v>-27236.9535</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>815.974</v>
       </c>
       <c r="G53" t="n">
-        <v>-26420.9795</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>621.780699009</v>
       </c>
       <c r="G54" t="n">
-        <v>-25799.198800991</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>160</v>
       </c>
       <c r="G55" t="n">
-        <v>-25799.198800991</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>750.4708000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-26549.669600991</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>163.12</v>
       </c>
       <c r="G57" t="n">
-        <v>-26386.549600991</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2506</v>
       </c>
       <c r="G58" t="n">
-        <v>-26386.549600991</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>-27386.549600991</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>4062.9342</v>
       </c>
       <c r="G60" t="n">
-        <v>-31449.483800991</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>23.3269</v>
       </c>
       <c r="G61" t="n">
-        <v>-31426.156900991</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>23.3269</v>
       </c>
       <c r="G62" t="n">
-        <v>-31402.830000991</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1236.966</v>
       </c>
       <c r="G63" t="n">
-        <v>-32639.796000991</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>259.3483</v>
       </c>
       <c r="G64" t="n">
-        <v>-32380.447700991</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>496.2238</v>
       </c>
       <c r="G65" t="n">
-        <v>-31884.223900991</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>5488.3622</v>
       </c>
       <c r="G66" t="n">
-        <v>-26395.861700991</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>4.8457</v>
       </c>
       <c r="G67" t="n">
-        <v>-26395.861700991</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>73.68819999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-26469.549900991</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>-27469.549900991</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>42.9336</v>
       </c>
       <c r="G70" t="n">
-        <v>-27426.616300991</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2597.7292</v>
       </c>
       <c r="G71" t="n">
-        <v>-30024.345500991</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>292.3269</v>
       </c>
       <c r="G72" t="n">
-        <v>-30316.672400991</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>27.6279</v>
       </c>
       <c r="G73" t="n">
-        <v>-30289.044500991</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>23.3269</v>
       </c>
       <c r="G74" t="n">
-        <v>-30289.044500991</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>5312.4379</v>
       </c>
       <c r="G75" t="n">
-        <v>-35601.482400991</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>-35598.482400991</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>42.9336</v>
       </c>
       <c r="G77" t="n">
-        <v>-35641.416000991</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>242.0574</v>
       </c>
       <c r="G78" t="n">
-        <v>-35883.473400991</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>23.3269</v>
       </c>
       <c r="G79" t="n">
-        <v>-35860.146500991</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>194.4575</v>
       </c>
       <c r="G80" t="n">
-        <v>-36054.60400099099</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>24.6664</v>
       </c>
       <c r="G81" t="n">
-        <v>-36079.27040099099</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>55.0325</v>
       </c>
       <c r="G82" t="n">
-        <v>-36024.23790099099</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>103.2848</v>
       </c>
       <c r="G83" t="n">
-        <v>-36127.52270099099</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10587.1944</v>
       </c>
       <c r="G84" t="n">
-        <v>-46714.71710099099</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2412.1296</v>
       </c>
       <c r="G85" t="n">
-        <v>-44302.58750099099</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1937.4259</v>
       </c>
       <c r="G86" t="n">
-        <v>-46240.013400991</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1069.4441</v>
       </c>
       <c r="G87" t="n">
-        <v>-45170.569300991</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>42.9336</v>
       </c>
       <c r="G88" t="n">
-        <v>-45127.635700991</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>20526.6749</v>
       </c>
       <c r="G89" t="n">
-        <v>-45127.635700991</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>133.3696</v>
       </c>
       <c r="G90" t="n">
-        <v>-44994.266100991</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1691.9613</v>
       </c>
       <c r="G91" t="n">
-        <v>-46686.227400991</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>39.2031</v>
       </c>
       <c r="G92" t="n">
-        <v>-46725.430500991</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>747.1734</v>
       </c>
       <c r="G93" t="n">
-        <v>-45978.257100991</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2818.7793</v>
       </c>
       <c r="G94" t="n">
-        <v>-48797.036400991</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>460.0473</v>
       </c>
       <c r="G95" t="n">
-        <v>-48797.036400991</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>18599.9044</v>
       </c>
       <c r="G96" t="n">
-        <v>-67396.940800991</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>784.1385</v>
       </c>
       <c r="G97" t="n">
-        <v>-68181.079300991</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>4216.3105</v>
       </c>
       <c r="G98" t="n">
-        <v>-68181.079300991</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>752.3078</v>
       </c>
       <c r="G99" t="n">
-        <v>-68181.079300991</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>6.5323</v>
       </c>
       <c r="G100" t="n">
-        <v>-68187.611600991</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>380.9231</v>
       </c>
       <c r="G101" t="n">
-        <v>-68187.611600991</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>39.2031</v>
       </c>
       <c r="G102" t="n">
-        <v>-68187.611600991</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>6000</v>
       </c>
       <c r="G103" t="n">
-        <v>-74187.611600991</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>2371.0254</v>
       </c>
       <c r="G104" t="n">
-        <v>-71816.58620099101</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>6.5323</v>
       </c>
       <c r="G105" t="n">
-        <v>-71823.11850099101</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>6430.4461</v>
       </c>
       <c r="G106" t="n">
-        <v>-78253.56460099101</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>322.8461</v>
       </c>
       <c r="G107" t="n">
-        <v>-77930.71850099102</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>6566.1918</v>
       </c>
       <c r="G108" t="n">
-        <v>-84496.91030099102</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>4796.5409</v>
       </c>
       <c r="G109" t="n">
-        <v>-84496.91030099102</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1495.9006</v>
       </c>
       <c r="G110" t="n">
-        <v>-83001.00970099102</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>23.9611</v>
       </c>
       <c r="G111" t="n">
-        <v>-83024.97080099102</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>8099.0542</v>
       </c>
       <c r="G112" t="n">
-        <v>-74925.91660099103</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>5.3266</v>
       </c>
       <c r="G113" t="n">
-        <v>-74920.59000099103</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>32.6069</v>
       </c>
       <c r="G114" t="n">
-        <v>-74920.59000099103</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>4864.6305</v>
       </c>
       <c r="G115" t="n">
-        <v>-74920.59000099103</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,19 @@
         <v>2838.5871</v>
       </c>
       <c r="G116" t="n">
-        <v>-74920.59000099103</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>194.9</v>
+      </c>
+      <c r="I116" t="n">
+        <v>194.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3897,23 @@
         <v>3403.2556</v>
       </c>
       <c r="G117" t="n">
-        <v>-74920.59000099103</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>194.9</v>
+      </c>
+      <c r="I117" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3935,21 @@
         <v>6.5323</v>
       </c>
       <c r="G118" t="n">
-        <v>-74927.12230099103</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>4010.9858</v>
       </c>
       <c r="G119" t="n">
-        <v>-70916.13650099104</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>3825.70034</v>
       </c>
       <c r="G120" t="n">
-        <v>-67090.43616099104</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>11025.1415</v>
       </c>
       <c r="G121" t="n">
-        <v>-78115.57766099104</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>-78112.57766099104</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>1005</v>
       </c>
       <c r="G123" t="n">
-        <v>-79117.57766099104</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>200</v>
       </c>
       <c r="G124" t="n">
-        <v>-79117.57766099104</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>232.5799</v>
       </c>
       <c r="G125" t="n">
-        <v>-78884.99776099104</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>184.4848</v>
       </c>
       <c r="G126" t="n">
-        <v>-79069.48256099105</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>99.9927</v>
       </c>
       <c r="G127" t="n">
-        <v>-78969.48986099105</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>856.2133</v>
       </c>
       <c r="G128" t="n">
-        <v>-78969.48986099105</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>5013.8032</v>
       </c>
       <c r="G129" t="n">
-        <v>-78969.48986099105</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>1090.6134</v>
       </c>
       <c r="G130" t="n">
-        <v>-77878.87646099104</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>1605</v>
       </c>
       <c r="G131" t="n">
-        <v>-79483.87646099104</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>421.7107</v>
       </c>
       <c r="G132" t="n">
-        <v>-79062.16576099105</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>64.73990000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-79062.16576099105</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>15715.4311</v>
       </c>
       <c r="G134" t="n">
-        <v>-94777.59686099105</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>27.6279</v>
       </c>
       <c r="G135" t="n">
-        <v>-94749.96896099104</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>818.1664</v>
       </c>
       <c r="G136" t="n">
-        <v>-95568.13536099104</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,15 @@
         <v>7366.5961</v>
       </c>
       <c r="G137" t="n">
-        <v>-102934.731460991</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4541,15 @@
         <v>1630.0265</v>
       </c>
       <c r="G138" t="n">
-        <v>-101304.704960991</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,15 @@
         <v>1375.2334</v>
       </c>
       <c r="G139" t="n">
-        <v>-101304.704960991</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4601,15 @@
         <v>618.0634</v>
       </c>
       <c r="G140" t="n">
-        <v>-100686.641560991</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4631,15 @@
         <v>14616.3882</v>
       </c>
       <c r="G141" t="n">
-        <v>-115303.029760991</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4661,15 @@
         <v>154.0208</v>
       </c>
       <c r="G142" t="n">
-        <v>-115149.0089609911</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4691,15 @@
         <v>690.6414</v>
       </c>
       <c r="G143" t="n">
-        <v>-115839.650360991</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4721,15 @@
         <v>1997.2461</v>
       </c>
       <c r="G144" t="n">
-        <v>-113842.404260991</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4751,15 @@
         <v>49.0448</v>
       </c>
       <c r="G145" t="n">
-        <v>-113793.359460991</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4781,15 @@
         <v>551.9302</v>
       </c>
       <c r="G146" t="n">
-        <v>-113793.359460991</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4811,15 @@
         <v>1382.0667</v>
       </c>
       <c r="G147" t="n">
-        <v>-115175.426160991</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4841,15 @@
         <v>246.4982</v>
       </c>
       <c r="G148" t="n">
-        <v>-115175.426160991</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4871,15 @@
         <v>57.0591</v>
       </c>
       <c r="G149" t="n">
-        <v>-115118.367060991</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4901,15 @@
         <v>3234.0048</v>
       </c>
       <c r="G150" t="n">
-        <v>-118352.371860991</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4931,15 @@
         <v>8949.874900000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-127302.246760991</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4961,15 @@
         <v>25.7403</v>
       </c>
       <c r="G152" t="n">
-        <v>-127276.506460991</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4991,15 @@
         <v>522.6228</v>
       </c>
       <c r="G153" t="n">
-        <v>-127799.129260991</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5021,15 @@
         <v>262.75</v>
       </c>
       <c r="G154" t="n">
-        <v>-127536.379260991</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5051,15 @@
         <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>-127533.379260991</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5081,15 @@
         <v>70</v>
       </c>
       <c r="G156" t="n">
-        <v>-127603.379260991</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5111,15 @@
         <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>-127600.379260991</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5141,15 @@
         <v>993.3631</v>
       </c>
       <c r="G158" t="n">
-        <v>-128593.742360991</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5171,15 @@
         <v>64.3</v>
       </c>
       <c r="G159" t="n">
-        <v>-128658.042360991</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5201,15 @@
         <v>2789.5448</v>
       </c>
       <c r="G160" t="n">
-        <v>-125868.497560991</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5231,15 @@
         <v>383.4216</v>
       </c>
       <c r="G161" t="n">
-        <v>-125868.497560991</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5261,15 @@
         <v>2003.4854</v>
       </c>
       <c r="G162" t="n">
-        <v>-127871.982960991</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>8969.510399999999</v>
       </c>
       <c r="G163" t="n">
-        <v>-118902.472560991</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>152.666</v>
       </c>
       <c r="G164" t="n">
-        <v>-118902.472560991</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>763.33</v>
       </c>
       <c r="G165" t="n">
-        <v>-118902.472560991</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>9051.8181</v>
       </c>
       <c r="G166" t="n">
-        <v>-118902.472560991</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,15 @@
         <v>7.7365</v>
       </c>
       <c r="G167" t="n">
-        <v>-118910.209060991</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5441,15 @@
         <v>1138.2539</v>
       </c>
       <c r="G168" t="n">
-        <v>-118910.209060991</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,15 @@
         <v>295.4652</v>
       </c>
       <c r="G169" t="n">
-        <v>-119205.674260991</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5501,15 @@
         <v>347.6008</v>
       </c>
       <c r="G170" t="n">
-        <v>-119553.275060991</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5531,15 @@
         <v>5.0498</v>
       </c>
       <c r="G171" t="n">
-        <v>-119548.225260991</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5561,15 @@
         <v>400.9483</v>
       </c>
       <c r="G172" t="n">
-        <v>-119949.173560991</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5591,15 @@
         <v>399</v>
       </c>
       <c r="G173" t="n">
-        <v>-120348.173560991</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5621,15 @@
         <v>2000</v>
       </c>
       <c r="G174" t="n">
-        <v>-120348.173560991</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5651,15 @@
         <v>347.6007</v>
       </c>
       <c r="G175" t="n">
-        <v>-120348.173560991</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5681,15 @@
         <v>1293.33</v>
       </c>
       <c r="G176" t="n">
-        <v>-120348.173560991</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5711,15 @@
         <v>813.0576</v>
       </c>
       <c r="G177" t="n">
-        <v>-119535.115960991</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5741,15 @@
         <v>200</v>
       </c>
       <c r="G178" t="n">
-        <v>-119735.115960991</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5771,15 @@
         <v>1131.7487</v>
       </c>
       <c r="G179" t="n">
-        <v>-118603.367260991</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5801,15 @@
         <v>480.114</v>
       </c>
       <c r="G180" t="n">
-        <v>-118123.253260991</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5831,15 @@
         <v>13.0059</v>
       </c>
       <c r="G181" t="n">
-        <v>-118123.253260991</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5861,15 @@
         <v>395.8801</v>
       </c>
       <c r="G182" t="n">
-        <v>-118123.253260991</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5891,15 @@
         <v>275.9941</v>
       </c>
       <c r="G183" t="n">
-        <v>-118399.247360991</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5921,15 @@
         <v>23.9611</v>
       </c>
       <c r="G184" t="n">
-        <v>-118375.286260991</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5951,15 @@
         <v>9760.786700000001</v>
       </c>
       <c r="G185" t="n">
-        <v>-128136.072960991</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5981,15 @@
         <v>61.8959</v>
       </c>
       <c r="G186" t="n">
-        <v>-128074.177060991</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6011,15 @@
         <v>11793.7348</v>
       </c>
       <c r="G187" t="n">
-        <v>-139867.911860991</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6041,15 @@
         <v>2.7555</v>
       </c>
       <c r="G188" t="n">
-        <v>-139865.156360991</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6071,15 @@
         <v>14248.3334</v>
       </c>
       <c r="G189" t="n">
-        <v>-154113.489760991</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6101,15 @@
         <v>4702.1455</v>
       </c>
       <c r="G190" t="n">
-        <v>-149411.344260991</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6131,15 @@
         <v>5</v>
       </c>
       <c r="G191" t="n">
-        <v>-149406.344260991</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6161,15 @@
         <v>733.15</v>
       </c>
       <c r="G192" t="n">
-        <v>-149406.344260991</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6191,15 @@
         <v>27.9978</v>
       </c>
       <c r="G193" t="n">
-        <v>-149378.346460991</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6221,15 @@
         <v>535.6024</v>
       </c>
       <c r="G194" t="n">
-        <v>-149378.346460991</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6251,15 @@
         <v>14.5176</v>
       </c>
       <c r="G195" t="n">
-        <v>-149363.828860991</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6281,15 @@
         <v>257.85</v>
       </c>
       <c r="G196" t="n">
-        <v>-149621.678860991</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6311,15 @@
         <v>9188.8349</v>
       </c>
       <c r="G197" t="n">
-        <v>-149621.678860991</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6341,15 @@
         <v>642.1442</v>
       </c>
       <c r="G198" t="n">
-        <v>-148979.534660991</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6371,15 @@
         <v>10197.7256</v>
       </c>
       <c r="G199" t="n">
-        <v>-138781.809060991</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6401,15 @@
         <v>2916.2433</v>
       </c>
       <c r="G200" t="n">
-        <v>-141698.052360991</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6431,15 @@
         <v>1005.3954</v>
       </c>
       <c r="G201" t="n">
-        <v>-142703.447760991</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6461,15 @@
         <v>1500.0264</v>
       </c>
       <c r="G202" t="n">
-        <v>-144203.474160991</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6491,15 @@
         <v>3855.9511</v>
       </c>
       <c r="G203" t="n">
-        <v>-148059.425260991</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6521,15 @@
         <v>654.6202</v>
       </c>
       <c r="G204" t="n">
-        <v>-147404.805060991</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6551,15 @@
         <v>9.620200000000001</v>
       </c>
       <c r="G205" t="n">
-        <v>-147414.425260991</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6581,15 @@
         <v>10000</v>
       </c>
       <c r="G206" t="n">
-        <v>-147414.425260991</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6611,15 @@
         <v>16701.3719</v>
       </c>
       <c r="G207" t="n">
-        <v>-164115.797160991</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6641,15 @@
         <v>2.8005</v>
       </c>
       <c r="G208" t="n">
-        <v>-164112.996660991</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6671,15 @@
         <v>607.6832000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>-164112.996660991</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6701,15 @@
         <v>22051.8181</v>
       </c>
       <c r="G210" t="n">
-        <v>-186164.814760991</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6731,15 @@
         <v>23.7863</v>
       </c>
       <c r="G211" t="n">
-        <v>-186141.028460991</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6761,15 @@
         <v>493.5253</v>
       </c>
       <c r="G212" t="n">
-        <v>-185647.503160991</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6791,15 @@
         <v>3</v>
       </c>
       <c r="G213" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6821,15 @@
         <v>2705.0102</v>
       </c>
       <c r="G214" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6851,15 @@
         <v>246.025</v>
       </c>
       <c r="G215" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6881,15 @@
         <v>164.6226</v>
       </c>
       <c r="G216" t="n">
-        <v>-185644.503160991</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6911,15 @@
         <v>1371.1837</v>
       </c>
       <c r="G217" t="n">
-        <v>-184273.319460991</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6941,15 @@
         <v>33.512</v>
       </c>
       <c r="G218" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6971,15 @@
         <v>2788.3711</v>
       </c>
       <c r="G219" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7001,15 @@
         <v>20000</v>
       </c>
       <c r="G220" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7031,15 @@
         <v>708.2353000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>-184239.807460991</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7061,15 @@
         <v>600</v>
       </c>
       <c r="G222" t="n">
-        <v>-183639.807460991</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7091,15 @@
         <v>123.7863</v>
       </c>
       <c r="G223" t="n">
-        <v>-183639.807460991</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7121,15 @@
         <v>3991.349</v>
       </c>
       <c r="G224" t="n">
-        <v>-187631.156460991</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7151,15 @@
         <v>2.6</v>
       </c>
       <c r="G225" t="n">
-        <v>-187628.556460991</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7181,15 @@
         <v>184.18</v>
       </c>
       <c r="G226" t="n">
-        <v>-187812.736460991</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7211,15 @@
         <v>4.2</v>
       </c>
       <c r="G227" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7241,15 @@
         <v>3</v>
       </c>
       <c r="G228" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7271,15 @@
         <v>3073.313</v>
       </c>
       <c r="G229" t="n">
-        <v>-187808.536460991</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7301,15 @@
         <v>2.6</v>
       </c>
       <c r="G230" t="n">
-        <v>-187805.936460991</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7331,15 @@
         <v>2151.8128</v>
       </c>
       <c r="G231" t="n">
-        <v>-185654.123660991</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7361,15 @@
         <v>2068.5231</v>
       </c>
       <c r="G232" t="n">
-        <v>-187722.646760991</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7391,15 @@
         <v>2849.1108</v>
       </c>
       <c r="G233" t="n">
-        <v>-187722.646760991</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7421,15 @@
         <v>11073.4517</v>
       </c>
       <c r="G234" t="n">
-        <v>-198796.098460991</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7451,15 @@
         <v>4</v>
       </c>
       <c r="G235" t="n">
-        <v>-198792.098460991</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7481,15 @@
         <v>3408.4723</v>
       </c>
       <c r="G236" t="n">
-        <v>-202200.570760991</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7511,15 @@
         <v>4</v>
       </c>
       <c r="G237" t="n">
-        <v>-202196.570760991</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7541,15 @@
         <v>4</v>
       </c>
       <c r="G238" t="n">
-        <v>-202196.570760991</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7571,15 @@
         <v>800</v>
       </c>
       <c r="G239" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7601,15 @@
         <v>66.73</v>
       </c>
       <c r="G240" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7631,15 @@
         <v>767.6561</v>
       </c>
       <c r="G241" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7661,15 @@
         <v>4300</v>
       </c>
       <c r="G242" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7691,15 @@
         <v>330.3015</v>
       </c>
       <c r="G243" t="n">
-        <v>-202996.570760991</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,22 +7721,15 @@
         <v>2525.3297</v>
       </c>
       <c r="G244" t="n">
-        <v>-200471.241060991</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>196</v>
-      </c>
-      <c r="J244" t="n">
-        <v>196</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8471,24 +7751,15 @@
         <v>1768.668</v>
       </c>
       <c r="G245" t="n">
-        <v>-202239.909060991</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>196</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8510,24 +7781,15 @@
         <v>852.1872</v>
       </c>
       <c r="G246" t="n">
-        <v>-202239.909060991</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>196</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8549,24 +7811,15 @@
         <v>2522.4873</v>
       </c>
       <c r="G247" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>196</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8588,24 +7841,15 @@
         <v>200</v>
       </c>
       <c r="G248" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>196</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8627,24 +7871,15 @@
         <v>24</v>
       </c>
       <c r="G249" t="n">
-        <v>-199717.421760991</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>196</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8666,24 +7901,15 @@
         <v>10396.5084</v>
       </c>
       <c r="G250" t="n">
-        <v>-210113.9301609909</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>196</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8705,24 +7931,15 @@
         <v>355.9098</v>
       </c>
       <c r="G251" t="n">
-        <v>-210469.8399609909</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>196</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8744,24 +7961,15 @@
         <v>30.1857</v>
       </c>
       <c r="G252" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>196</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8783,24 +7991,15 @@
         <v>3</v>
       </c>
       <c r="G253" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>196</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8822,24 +8021,15 @@
         <v>378.6705</v>
       </c>
       <c r="G254" t="n">
-        <v>-210439.6542609909</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>196</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8861,24 +8051,15 @@
         <v>104.3215</v>
       </c>
       <c r="G255" t="n">
-        <v>-210543.9757609909</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>196</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8900,26 +8081,15 @@
         <v>6023.7214</v>
       </c>
       <c r="G256" t="n">
-        <v>-204520.2543609909</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J256" t="n">
-        <v>196</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8941,26 +8111,15 @@
         <v>1584.5692</v>
       </c>
       <c r="G257" t="n">
-        <v>-206104.8235609909</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>196</v>
-      </c>
-      <c r="J257" t="n">
-        <v>196</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8982,24 +8141,15 @@
         <v>2.6</v>
       </c>
       <c r="G258" t="n">
-        <v>-206102.2235609909</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>196</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9021,24 +8171,15 @@
         <v>300</v>
       </c>
       <c r="G259" t="n">
-        <v>-206402.2235609909</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>196</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9060,24 +8201,15 @@
         <v>1062.0062</v>
       </c>
       <c r="G260" t="n">
-        <v>-205340.2173609909</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>196</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9099,24 +8231,15 @@
         <v>534.6099</v>
       </c>
       <c r="G261" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>196</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9138,24 +8261,15 @@
         <v>100</v>
       </c>
       <c r="G262" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>196</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9177,24 +8291,15 @@
         <v>983.6741</v>
       </c>
       <c r="G263" t="n">
-        <v>-204805.6074609909</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>196</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9216,24 +8321,15 @@
         <v>62</v>
       </c>
       <c r="G264" t="n">
-        <v>-204743.6074609909</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>196</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9255,26 +8351,15 @@
         <v>16.3259</v>
       </c>
       <c r="G265" t="n">
-        <v>-204759.9333609909</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J265" t="n">
-        <v>196</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9296,26 +8381,15 @@
         <v>33.7543</v>
       </c>
       <c r="G266" t="n">
-        <v>-204793.6876609909</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>196</v>
-      </c>
-      <c r="J266" t="n">
-        <v>196</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9337,26 +8411,15 @@
         <v>2737.5921</v>
       </c>
       <c r="G267" t="n">
-        <v>-204793.6876609909</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="J267" t="n">
-        <v>196</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9378,26 +8441,15 @@
         <v>2.7</v>
       </c>
       <c r="G268" t="n">
-        <v>-204790.9876609909</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="J268" t="n">
-        <v>196</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9419,26 +8471,15 @@
         <v>10.5728</v>
       </c>
       <c r="G269" t="n">
-        <v>-204790.9876609909</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="J269" t="n">
-        <v>196</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9460,26 +8501,15 @@
         <v>1200</v>
       </c>
       <c r="G270" t="n">
-        <v>-205990.9876609909</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>196.9</v>
-      </c>
-      <c r="J270" t="n">
-        <v>196</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9501,26 +8531,15 @@
         <v>1057.5959</v>
       </c>
       <c r="G271" t="n">
-        <v>-204933.3917609909</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="J271" t="n">
-        <v>196</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9542,24 +8561,15 @@
         <v>18771.9052</v>
       </c>
       <c r="G272" t="n">
-        <v>-186161.4865609909</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>196</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9581,24 +8591,15 @@
         <v>320.1894</v>
       </c>
       <c r="G273" t="n">
-        <v>-185841.2971609909</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>196</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9620,24 +8621,15 @@
         <v>1133.763</v>
       </c>
       <c r="G274" t="n">
-        <v>-185841.2971609909</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>196</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9659,24 +8651,15 @@
         <v>221.1639</v>
       </c>
       <c r="G275" t="n">
-        <v>-185841.2971609909</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>196</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9698,24 +8681,15 @@
         <v>495.3769</v>
       </c>
       <c r="G276" t="n">
-        <v>-185345.9202609909</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>196</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9737,24 +8711,15 @@
         <v>4808.5375</v>
       </c>
       <c r="G277" t="n">
-        <v>-190154.4577609909</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>196</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9776,24 +8741,15 @@
         <v>7657.3447</v>
       </c>
       <c r="G278" t="n">
-        <v>-182497.1130609909</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>196</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9815,24 +8771,15 @@
         <v>609.4508</v>
       </c>
       <c r="G279" t="n">
-        <v>-181887.6622609909</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>196</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9854,24 +8801,15 @@
         <v>8003.2884</v>
       </c>
       <c r="G280" t="n">
-        <v>-173884.3738609909</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>196</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9893,24 +8831,15 @@
         <v>4</v>
       </c>
       <c r="G281" t="n">
-        <v>-173884.3738609909</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>196</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9932,24 +8861,15 @@
         <v>29.3693</v>
       </c>
       <c r="G282" t="n">
-        <v>-173884.3738609909</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>196</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9971,24 +8891,15 @@
         <v>981.7186424</v>
       </c>
       <c r="G283" t="n">
-        <v>-174866.0925033909</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>196</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10010,24 +8921,15 @@
         <v>7</v>
       </c>
       <c r="G284" t="n">
-        <v>-174873.0925033909</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>196</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10049,24 +8951,15 @@
         <v>1172.0171</v>
       </c>
       <c r="G285" t="n">
-        <v>-173701.0754033909</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>196</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10088,24 +8981,15 @@
         <v>5662.209</v>
       </c>
       <c r="G286" t="n">
-        <v>-179363.2844033909</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>196</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10127,24 +9011,15 @@
         <v>3377.3789</v>
       </c>
       <c r="G287" t="n">
-        <v>-179363.2844033909</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>196</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
